--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3658305.117885874</v>
+        <v>-3659017.722359915</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169821.4284147701</v>
+        <v>169821.42841477</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.451805854</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>171.8758480566236</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>188.5623770505815</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718763</v>
+        <v>16.53078872718772</v>
       </c>
       <c r="S11" t="n">
-        <v>49.1796882455086</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065495</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>71.82086528673101</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>56.24050357280098</v>
+        <v>114.2946856873263</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810586</v>
+        <v>9.188502199810671</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668527</v>
+        <v>6.846506480668534</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S12" t="n">
-        <v>183.4295018612851</v>
+        <v>13.25780256851666</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134796</v>
+        <v>36.64054962134804</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437484</v>
+        <v>58.89840834437492</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084691</v>
+        <v>62.31927159084699</v>
       </c>
       <c r="W12" t="n">
-        <v>88.37493425245626</v>
+        <v>88.37493425245634</v>
       </c>
       <c r="X12" t="n">
         <v>188.5623770505815</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947028</v>
+        <v>80.51769775180398</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650153</v>
+        <v>25.09353465650162</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412733</v>
+        <v>57.10576830412742</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605249</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U13" t="n">
         <v>110.3268994226097</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989457</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W13" t="n">
-        <v>111.98105776478</v>
+        <v>111.9810577647801</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368719</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961308</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8758480566235</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>166.2414819729225</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>156.3270925087938</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.66716559384199</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718768</v>
+        <v>16.53078872718772</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.17968824550869</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13476116065503</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.82086528673099</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>10.99938421618932</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810642</v>
+        <v>9.188502199810671</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>63.84373706249318</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668527</v>
+        <v>6.846506480668534</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851663</v>
+        <v>13.25780256851666</v>
       </c>
       <c r="T15" t="n">
-        <v>36.64054962134801</v>
+        <v>36.64054962134804</v>
       </c>
       <c r="U15" t="n">
+        <v>58.89840834437492</v>
+      </c>
+      <c r="V15" t="n">
+        <v>62.31927159084699</v>
+      </c>
+      <c r="W15" t="n">
+        <v>88.37493425245634</v>
+      </c>
+      <c r="X15" t="n">
         <v>188.5623770505815</v>
       </c>
-      <c r="V15" t="n">
-        <v>188.5623770505815</v>
-      </c>
-      <c r="W15" t="n">
-        <v>88.37493425245631</v>
-      </c>
-      <c r="X15" t="n">
-        <v>38.98326511491533</v>
-      </c>
       <c r="Y15" t="n">
-        <v>45.05463680947034</v>
+        <v>45.05463680947037</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650159</v>
+        <v>25.09353465650162</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412739</v>
+        <v>57.10576830412742</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605254</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U16" t="n">
         <v>110.3268994226097</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989463</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W16" t="n">
-        <v>111.98105776478</v>
+        <v>111.9810577647801</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368725</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961314</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="17">
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668527</v>
+        <v>6.846506480668534</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>182.6448556938669</v>
+        <v>172.4466719314919</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.66264858577205</v>
+        <v>76.6626485857721</v>
       </c>
       <c r="C20" t="n">
-        <v>52.78090558911754</v>
+        <v>52.78090558911759</v>
       </c>
       <c r="D20" t="n">
-        <v>40.347567850166</v>
+        <v>40.34756785016606</v>
       </c>
       <c r="E20" t="n">
-        <v>74.05432026957487</v>
+        <v>74.05432026957493</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7746578479522</v>
+        <v>105.7746578479523</v>
       </c>
       <c r="G20" t="n">
-        <v>121.4132451535435</v>
+        <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.59336558194008</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.45519181709074</v>
+        <v>23.45519181709079</v>
       </c>
       <c r="W20" t="n">
-        <v>40.47187203370561</v>
+        <v>40.47187203370567</v>
       </c>
       <c r="X20" t="n">
-        <v>62.35812250264485</v>
+        <v>62.3581225026449</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.86097562638861</v>
+        <v>84.86097562638867</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>47.58488881655559</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>29.1531996694094</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668527</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.66264858577205</v>
+        <v>76.6626485857721</v>
       </c>
       <c r="C23" t="n">
-        <v>52.78090558911754</v>
+        <v>52.78090558911759</v>
       </c>
       <c r="D23" t="n">
-        <v>40.347567850166</v>
+        <v>40.34756785016606</v>
       </c>
       <c r="E23" t="n">
-        <v>74.05432026957487</v>
+        <v>74.05432026957493</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7746578479522</v>
+        <v>105.7746578479523</v>
       </c>
       <c r="G23" t="n">
-        <v>121.4132451535435</v>
+        <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194008</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.45519181709074</v>
+        <v>23.45519181709079</v>
       </c>
       <c r="W23" t="n">
-        <v>40.47187203370561</v>
+        <v>40.47187203370567</v>
       </c>
       <c r="X23" t="n">
-        <v>62.35812250264485</v>
+        <v>62.3581225026449</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.86097562638861</v>
+        <v>84.86097562638867</v>
       </c>
     </row>
     <row r="24">
@@ -2400,25 +2400,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>70.09089139533013</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705467</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668527</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>188.5623770505813</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V24" t="n">
-        <v>188.5623770505813</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>188.5623770505813</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>106.7810505784288</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098005</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D26" t="n">
         <v>124.3051829741945</v>
@@ -2567,13 +2567,13 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H26" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036443</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203113</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177523</v>
+        <v>8.997433817177466</v>
       </c>
       <c r="U26" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325344</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W26" t="n">
         <v>124.4294871577341</v>
       </c>
       <c r="X26" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266733</v>
       </c>
       <c r="Y26" t="n">
         <v>168.8185907504171</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.248861120907611</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668527</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7086383504342</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>117.7263263551423</v>
+        <v>1.503222277870493</v>
       </c>
       <c r="U27" t="n">
-        <v>23.76108100089743</v>
+        <v>23.76108100089737</v>
       </c>
       <c r="V27" t="n">
-        <v>27.1819442473695</v>
+        <v>27.18194424736944</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.23760690897879</v>
       </c>
       <c r="X27" t="n">
-        <v>3.84593777143786</v>
+        <v>3.845937771437804</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992815</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064987</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257502</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913219</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641716</v>
+        <v>31.6420385164171</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130252</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209727</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135617</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098005</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D29" t="n">
         <v>124.3051829741945</v>
@@ -2804,13 +2804,13 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H29" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036443</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.0423609020312</v>
+        <v>14.04236090203113</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177535</v>
+        <v>8.997433817177466</v>
       </c>
       <c r="U29" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325344</v>
       </c>
       <c r="V29" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W29" t="n">
         <v>124.4294871577341</v>
       </c>
       <c r="X29" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266733</v>
       </c>
       <c r="Y29" t="n">
         <v>168.8185907504171</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>19.88658643858595</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668527</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
-        <v>1.50322227787055</v>
+        <v>1.503222277870493</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2280576689302</v>
+        <v>37.23819518523334</v>
       </c>
       <c r="V30" t="n">
-        <v>27.1819442473695</v>
+        <v>27.18194424736944</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.23760690897879</v>
       </c>
       <c r="X30" t="n">
-        <v>3.84593777143786</v>
+        <v>3.845937771437804</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992815</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064987</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257502</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913219</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641716</v>
+        <v>31.6420385164171</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130252</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209727</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135617</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098005</v>
       </c>
       <c r="C32" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D32" t="n">
-        <v>124.3051829741946</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E32" t="n">
-        <v>158.0119353936035</v>
+        <v>158.0119353936034</v>
       </c>
       <c r="F32" t="n">
-        <v>189.7322729719808</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G32" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5509807059687</v>
+        <v>133.5509807059686</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036455</v>
+        <v>27.52983825036443</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203125</v>
+        <v>14.04236090203114</v>
       </c>
       <c r="T32" t="n">
-        <v>8.99743381717758</v>
+        <v>8.997433817177479</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325355</v>
+        <v>36.68353794325344</v>
       </c>
       <c r="V32" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W32" t="n">
-        <v>124.4294871577342</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X32" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266733</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.8185907504172</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="33">
@@ -3108,22 +3108,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>140.5942146166788</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870607</v>
+        <v>1.503222277870493</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089748</v>
+        <v>23.76108100089737</v>
       </c>
       <c r="V33" t="n">
-        <v>27.18194424736956</v>
+        <v>27.18194424736944</v>
       </c>
       <c r="W33" t="n">
-        <v>53.2376069089789</v>
+        <v>185.2820675758783</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437917</v>
+        <v>3.845937771437804</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992929</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064998</v>
+        <v>21.96844096064987</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257514</v>
+        <v>10.29393777257502</v>
       </c>
       <c r="U34" t="n">
-        <v>75.1895720791323</v>
+        <v>75.18957207913219</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641722</v>
+        <v>31.6420385164171</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130264</v>
+        <v>76.84373042130252</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209841</v>
+        <v>8.452478740209727</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135731</v>
+        <v>3.674296146135617</v>
       </c>
     </row>
     <row r="35">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>65.67665828419175</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668527</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>7.796891894807786</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.039395192896917</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>102.1525018240098</v>
       </c>
     </row>
     <row r="40">
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.153699692889013</v>
+        <v>9.153699692889006</v>
       </c>
       <c r="V41" t="n">
         <v>79.88296869075478</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.11659605346509</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3876,13 +3876,13 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>5.283080164188786</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>106.7091786957566</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>80.24326055791144</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5520376898864</v>
+        <v>549.5562357768255</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5520376898864</v>
+        <v>375.9442680428623</v>
       </c>
       <c r="D11" t="n">
-        <v>205.5520376898864</v>
+        <v>375.9442680428623</v>
       </c>
       <c r="E11" t="n">
-        <v>205.5520376898864</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="F11" t="n">
-        <v>15.08499016404652</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="G11" t="n">
-        <v>15.08499016404652</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="H11" t="n">
         <v>15.08499016404652</v>
@@ -5039,52 +5039,52 @@
         <v>15.08499016404652</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6457740567087</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K11" t="n">
-        <v>267.4711326400899</v>
+        <v>185.0137379722657</v>
       </c>
       <c r="L11" t="n">
-        <v>314.2444708703838</v>
+        <v>371.6904912523414</v>
       </c>
       <c r="M11" t="n">
-        <v>395.1647815935355</v>
+        <v>558.3672445324171</v>
       </c>
       <c r="N11" t="n">
-        <v>470.5520315267736</v>
+        <v>633.7544944656552</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8287151602031</v>
+        <v>754.249508202326</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381371</v>
+        <v>754.249508202326</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023261</v>
+        <v>754.249508202326</v>
       </c>
       <c r="R11" t="n">
-        <v>737.5517418112274</v>
+        <v>737.5517418112273</v>
       </c>
       <c r="S11" t="n">
-        <v>687.8752890379864</v>
+        <v>737.5517418112273</v>
       </c>
       <c r="T11" t="n">
-        <v>643.294722209042</v>
+        <v>737.5517418112273</v>
       </c>
       <c r="U11" t="n">
-        <v>643.294722209042</v>
+        <v>665.0054132387718</v>
       </c>
       <c r="V11" t="n">
-        <v>643.294722209042</v>
+        <v>665.0054132387718</v>
       </c>
       <c r="W11" t="n">
-        <v>643.294722209042</v>
+        <v>665.0054132387718</v>
       </c>
       <c r="X11" t="n">
-        <v>586.4861327415663</v>
+        <v>549.5562357768255</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.0190852157264</v>
+        <v>549.5562357768255</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.35437081744577</v>
+        <v>77.35437081744585</v>
       </c>
       <c r="C12" t="n">
         <v>68.07305546410174</v>
@@ -5121,49 +5121,49 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635116</v>
+        <v>53.07705719635113</v>
       </c>
       <c r="L12" t="n">
         <v>170.4486221681694</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486674</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287433</v>
+        <v>538.847119928743</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110301</v>
+        <v>670.59040721103</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023261</v>
+        <v>754.249508202326</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.3338450905396</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="R12" t="n">
-        <v>747.3338450905396</v>
+        <v>611.2645134234342</v>
       </c>
       <c r="S12" t="n">
-        <v>562.0515199781304</v>
+        <v>597.8727936572558</v>
       </c>
       <c r="T12" t="n">
-        <v>525.0408637949506</v>
+        <v>560.8621374740759</v>
       </c>
       <c r="U12" t="n">
-        <v>465.5475220329558</v>
+        <v>501.368795712081</v>
       </c>
       <c r="V12" t="n">
-        <v>402.5987628502822</v>
+        <v>438.4200365294073</v>
       </c>
       <c r="W12" t="n">
-        <v>313.3311524942658</v>
+        <v>349.1524261733908</v>
       </c>
       <c r="X12" t="n">
-        <v>122.8641049684259</v>
+        <v>158.6853786475509</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.35437081744577</v>
+        <v>77.35437081744585</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.08499016404652</v>
+        <v>250.7941795780784</v>
       </c>
       <c r="C13" t="n">
-        <v>15.08499016404652</v>
+        <v>262.5479232471354</v>
       </c>
       <c r="D13" t="n">
-        <v>15.08499016404652</v>
+        <v>295.3634523302415</v>
       </c>
       <c r="E13" t="n">
-        <v>51.37196319525356</v>
+        <v>331.6504253614485</v>
       </c>
       <c r="F13" t="n">
-        <v>90.38070263030116</v>
+        <v>370.659164796496</v>
       </c>
       <c r="G13" t="n">
-        <v>99.91343750215124</v>
+        <v>380.191899668346</v>
       </c>
       <c r="H13" t="n">
-        <v>112.2949633427591</v>
+        <v>392.5734255089537</v>
       </c>
       <c r="I13" t="n">
-        <v>112.2949633427591</v>
+        <v>392.5734255089537</v>
       </c>
       <c r="J13" t="n">
-        <v>169.8146544093708</v>
+        <v>450.0931165755653</v>
       </c>
       <c r="K13" t="n">
-        <v>280.0186633703686</v>
+        <v>450.0931165755653</v>
       </c>
       <c r="L13" t="n">
-        <v>280.0186633703686</v>
+        <v>450.0931165755653</v>
       </c>
       <c r="M13" t="n">
-        <v>280.0186633703686</v>
+        <v>475.3646894687145</v>
       </c>
       <c r="N13" t="n">
-        <v>280.0186633703686</v>
+        <v>635.578920992479</v>
       </c>
       <c r="O13" t="n">
-        <v>419.4820123894564</v>
+        <v>635.578920992479</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612847</v>
+        <v>754.249508202326</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612847</v>
+        <v>754.249508202326</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577479</v>
+        <v>728.902503498789</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111546</v>
+        <v>671.2199092521956</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272632</v>
+        <v>625.3297424683042</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791727</v>
+        <v>513.8884299202135</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701882</v>
+        <v>446.434525011229</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980439</v>
+        <v>333.3223454508451</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456479</v>
+        <v>289.2922382956054</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.08499016404652</v>
+        <v>250.0885782050871</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>547.0846942853875</v>
+        <v>236.2913114798402</v>
       </c>
       <c r="C14" t="n">
-        <v>373.4727265514243</v>
+        <v>236.2913114798402</v>
       </c>
       <c r="D14" t="n">
-        <v>373.4727265514243</v>
+        <v>236.2913114798402</v>
       </c>
       <c r="E14" t="n">
-        <v>183.0056790255844</v>
+        <v>236.2913114798402</v>
       </c>
       <c r="F14" t="n">
-        <v>15.08499016404652</v>
+        <v>236.2913114798402</v>
       </c>
       <c r="G14" t="n">
-        <v>15.08499016404652</v>
+        <v>236.2913114798402</v>
       </c>
       <c r="H14" t="n">
-        <v>15.08499016404652</v>
+        <v>78.38515743055359</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567087</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K14" t="n">
-        <v>285.5745218649279</v>
+        <v>185.0137379722657</v>
       </c>
       <c r="L14" t="n">
-        <v>472.2512751450035</v>
+        <v>299.975690919023</v>
       </c>
       <c r="M14" t="n">
-        <v>553.1715858681553</v>
+        <v>380.8960016421746</v>
       </c>
       <c r="N14" t="n">
-        <v>628.5588358013933</v>
+        <v>567.5727549222503</v>
       </c>
       <c r="O14" t="n">
-        <v>662.8355194348229</v>
+        <v>754.249508202326</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4818518381371</v>
+        <v>754.249508202326</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.2495082023261</v>
+        <v>754.249508202326</v>
       </c>
       <c r="R14" t="n">
-        <v>737.5517418112274</v>
+        <v>737.5517418112273</v>
       </c>
       <c r="S14" t="n">
-        <v>737.5517418112274</v>
+        <v>687.8752890379862</v>
       </c>
       <c r="T14" t="n">
-        <v>737.5517418112274</v>
+        <v>643.2947222090418</v>
       </c>
       <c r="U14" t="n">
-        <v>737.5517418112274</v>
+        <v>570.7483936365862</v>
       </c>
       <c r="V14" t="n">
-        <v>737.5517418112274</v>
+        <v>426.7583590056801</v>
       </c>
       <c r="W14" t="n">
-        <v>737.5517418112274</v>
+        <v>426.7583590056801</v>
       </c>
       <c r="X14" t="n">
-        <v>737.5517418112274</v>
+        <v>426.7583590056801</v>
       </c>
       <c r="Y14" t="n">
-        <v>547.0846942853875</v>
+        <v>426.7583590056801</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>141.8429941128935</v>
+        <v>238.1344870564141</v>
       </c>
       <c r="C15" t="n">
-        <v>132.5616787595494</v>
+        <v>228.85317170307</v>
       </c>
       <c r="D15" t="n">
-        <v>132.5616787595494</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="E15" t="n">
-        <v>132.5616787595494</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="F15" t="n">
         <v>68.07305546410174</v>
@@ -5358,49 +5358,49 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635116</v>
+        <v>53.07705719635113</v>
       </c>
       <c r="L15" t="n">
-        <v>170.4486221681694</v>
+        <v>170.4486221681693</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486674</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287432</v>
+        <v>538.847119928743</v>
       </c>
       <c r="O15" t="n">
         <v>670.59040721103</v>
       </c>
       <c r="P15" t="n">
-        <v>754.2495082023261</v>
+        <v>754.249508202326</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.3338450905396</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="R15" t="n">
-        <v>747.3338450905396</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="S15" t="n">
-        <v>733.9421253243612</v>
+        <v>733.9421253243611</v>
       </c>
       <c r="T15" t="n">
-        <v>696.9314691411814</v>
+        <v>696.9314691411812</v>
       </c>
       <c r="U15" t="n">
-        <v>506.4644216153415</v>
+        <v>637.4381273791863</v>
       </c>
       <c r="V15" t="n">
-        <v>315.9973740895016</v>
+        <v>574.4893681965126</v>
       </c>
       <c r="W15" t="n">
-        <v>226.7297637334851</v>
+        <v>485.2217578404961</v>
       </c>
       <c r="X15" t="n">
-        <v>187.3527282638736</v>
+        <v>294.7547103146562</v>
       </c>
       <c r="Y15" t="n">
-        <v>141.8429941128935</v>
+        <v>249.2449761636761</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.08499016404652</v>
+        <v>15.79059153703781</v>
       </c>
       <c r="C16" t="n">
-        <v>15.08499016404652</v>
+        <v>15.79059153703781</v>
       </c>
       <c r="D16" t="n">
-        <v>15.08499016404652</v>
+        <v>48.6061206201439</v>
       </c>
       <c r="E16" t="n">
-        <v>15.08499016404652</v>
+        <v>48.6061206201439</v>
       </c>
       <c r="F16" t="n">
-        <v>15.08499016404652</v>
+        <v>48.6061206201439</v>
       </c>
       <c r="G16" t="n">
-        <v>15.08499016404652</v>
+        <v>48.6061206201439</v>
       </c>
       <c r="H16" t="n">
-        <v>15.08499016404652</v>
+        <v>48.6061206201439</v>
       </c>
       <c r="I16" t="n">
-        <v>15.08499016404652</v>
+        <v>48.6061206201439</v>
       </c>
       <c r="J16" t="n">
-        <v>72.60468123065819</v>
+        <v>106.1258116867555</v>
       </c>
       <c r="K16" t="n">
-        <v>182.808690191656</v>
+        <v>216.3298206477533</v>
       </c>
       <c r="L16" t="n">
-        <v>327.546929646914</v>
+        <v>361.0680601030112</v>
       </c>
       <c r="M16" t="n">
-        <v>359.0316886375208</v>
+        <v>512.6731068552117</v>
       </c>
       <c r="N16" t="n">
-        <v>519.2459201612853</v>
+        <v>512.6731068552117</v>
       </c>
       <c r="O16" t="n">
-        <v>519.2459201612853</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="P16" t="n">
-        <v>519.2459201612853</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612853</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577483</v>
+        <v>493.8989154577484</v>
       </c>
       <c r="S16" t="n">
-        <v>436.216321211155</v>
+        <v>436.2163212111551</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272635</v>
+        <v>390.3261544272636</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791729</v>
+        <v>278.884841879173</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701884</v>
+        <v>211.4309369701885</v>
       </c>
       <c r="W16" t="n">
-        <v>98.3187574098045</v>
+        <v>98.31875740980455</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456485</v>
+        <v>54.28865025456487</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404652</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340411</v>
+        <v>463.5335379340408</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844274</v>
+        <v>410.219491884427</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438556</v>
+        <v>369.4643728438552</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372142</v>
+        <v>294.6620291372139</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019085</v>
       </c>
       <c r="G17" t="n">
         <v>65.17929883267293</v>
@@ -5516,49 +5516,49 @@
         <v>70.94848926897387</v>
       </c>
       <c r="K17" t="n">
-        <v>70.94848926897387</v>
+        <v>139.9871548196101</v>
       </c>
       <c r="L17" t="n">
-        <v>117.7218274992678</v>
+        <v>186.760493049904</v>
       </c>
       <c r="M17" t="n">
-        <v>198.6421382224195</v>
+        <v>267.6808037730557</v>
       </c>
       <c r="N17" t="n">
-        <v>274.0293881556576</v>
+        <v>343.0680537062937</v>
       </c>
       <c r="O17" t="n">
-        <v>308.3060717890871</v>
+        <v>377.3447373397232</v>
       </c>
       <c r="P17" t="n">
-        <v>308.3060717890871</v>
+        <v>377.3447373397232</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.482978416884</v>
+        <v>564.0214906197989</v>
       </c>
       <c r="R17" t="n">
-        <v>564.021490619799</v>
+        <v>564.0214906197989</v>
       </c>
       <c r="S17" t="n">
-        <v>633.2375922995764</v>
+        <v>633.2375922995762</v>
       </c>
       <c r="T17" t="n">
-        <v>707.4481717933588</v>
+        <v>707.4481717933587</v>
       </c>
       <c r="U17" t="n">
-        <v>754.2495082023261</v>
+        <v>754.249508202326</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557697</v>
+        <v>730.5573952557695</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338448</v>
+        <v>689.6767164338446</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059207</v>
+        <v>626.6887139059204</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075483</v>
+        <v>540.970556707548</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>562.8440918644114</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="C18" t="n">
-        <v>562.8440918644114</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="D18" t="n">
-        <v>402.0639756254432</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="E18" t="n">
-        <v>228.5007717468577</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="F18" t="n">
         <v>68.07305546410174</v>
@@ -5595,49 +5595,49 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635129</v>
+        <v>53.07705719635109</v>
       </c>
       <c r="L18" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681693</v>
       </c>
       <c r="M18" t="n">
-        <v>352.1703666486676</v>
+        <v>352.1703666486674</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287433</v>
+        <v>538.847119928743</v>
       </c>
       <c r="O18" t="n">
-        <v>670.5904072110301</v>
+        <v>670.59040721103</v>
       </c>
       <c r="P18" t="n">
-        <v>754.2495082023261</v>
+        <v>754.249508202326</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.3338450905396</v>
+        <v>747.3338450905395</v>
       </c>
       <c r="R18" t="n">
-        <v>747.3338450905396</v>
+        <v>611.2645134234342</v>
       </c>
       <c r="S18" t="n">
-        <v>747.3338450905396</v>
+        <v>611.2645134234342</v>
       </c>
       <c r="T18" t="n">
-        <v>747.3338450905396</v>
+        <v>611.2645134234342</v>
       </c>
       <c r="U18" t="n">
-        <v>747.3338450905396</v>
+        <v>611.2645134234342</v>
       </c>
       <c r="V18" t="n">
-        <v>747.3338450905396</v>
+        <v>611.2645134234342</v>
       </c>
       <c r="W18" t="n">
-        <v>747.3338450905396</v>
+        <v>611.2645134234342</v>
       </c>
       <c r="X18" t="n">
-        <v>562.8440918644114</v>
+        <v>437.0759559168768</v>
       </c>
       <c r="Y18" t="n">
-        <v>562.8440918644114</v>
+        <v>246.6089083910368</v>
       </c>
     </row>
     <row r="19">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340413</v>
+        <v>463.533537934041</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844276</v>
+        <v>410.2194918844272</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438558</v>
+        <v>369.4643728438554</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372145</v>
+        <v>294.6620291372141</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019092</v>
+        <v>187.8189404019087</v>
       </c>
       <c r="G20" t="n">
-        <v>65.17929883267287</v>
+        <v>65.17929883267293</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="I20" t="n">
-        <v>70.94848926897393</v>
+        <v>38.44864261669515</v>
       </c>
       <c r="J20" t="n">
-        <v>70.94848926897393</v>
+        <v>38.44864261669515</v>
       </c>
       <c r="K20" t="n">
-        <v>70.94848926897393</v>
+        <v>38.44864261669515</v>
       </c>
       <c r="L20" t="n">
-        <v>117.7218274992679</v>
+        <v>85.22198084698907</v>
       </c>
       <c r="M20" t="n">
-        <v>198.6421382224195</v>
+        <v>166.1422915701407</v>
       </c>
       <c r="N20" t="n">
-        <v>274.0293881556576</v>
+        <v>241.5295415033788</v>
       </c>
       <c r="O20" t="n">
-        <v>308.3060717890871</v>
+        <v>275.8062251368083</v>
       </c>
       <c r="P20" t="n">
-        <v>308.3060717890871</v>
+        <v>275.8062251368083</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4829784168839</v>
+        <v>462.482978416884</v>
       </c>
       <c r="R20" t="n">
         <v>564.021490619799</v>
@@ -5786,16 +5786,16 @@
         <v>754.2495082023261</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557696</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W20" t="n">
         <v>689.6767164338448</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059207</v>
+        <v>626.6887139059206</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075484</v>
+        <v>540.9705567075481</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>747.3338450905396</v>
+        <v>194.7795602237111</v>
       </c>
       <c r="C21" t="n">
-        <v>557.9215708235033</v>
+        <v>194.7795602237111</v>
       </c>
       <c r="D21" t="n">
-        <v>397.141454584535</v>
+        <v>194.7795602237111</v>
       </c>
       <c r="E21" t="n">
-        <v>223.5782507059495</v>
+        <v>194.7795602237111</v>
       </c>
       <c r="F21" t="n">
-        <v>63.15053442319359</v>
+        <v>194.7795602237111</v>
       </c>
       <c r="G21" t="n">
-        <v>15.08499016404652</v>
+        <v>44.53266659779339</v>
       </c>
       <c r="H21" t="n">
         <v>15.08499016404652</v>
@@ -5832,10 +5832,10 @@
         <v>15.08499016404652</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635116</v>
+        <v>53.07705719635112</v>
       </c>
       <c r="L21" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681694</v>
       </c>
       <c r="M21" t="n">
         <v>352.1703666486676</v>
@@ -5850,31 +5850,31 @@
         <v>754.2495082023261</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.3338450905396</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="R21" t="n">
-        <v>747.3338450905396</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="S21" t="n">
-        <v>747.3338450905396</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="T21" t="n">
-        <v>747.3338450905396</v>
+        <v>754.2495082023261</v>
       </c>
       <c r="U21" t="n">
-        <v>747.3338450905396</v>
+        <v>563.7824606764862</v>
       </c>
       <c r="V21" t="n">
-        <v>747.3338450905396</v>
+        <v>563.7824606764862</v>
       </c>
       <c r="W21" t="n">
-        <v>747.3338450905396</v>
+        <v>563.7824606764862</v>
       </c>
       <c r="X21" t="n">
-        <v>747.3338450905396</v>
+        <v>563.7824606764862</v>
       </c>
       <c r="Y21" t="n">
-        <v>747.3338450905396</v>
+        <v>373.3154131506462</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340404</v>
+        <v>463.5335379340412</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844268</v>
+        <v>410.2194918844274</v>
       </c>
       <c r="D23" t="n">
-        <v>369.464372843855</v>
+        <v>369.4643728438556</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372138</v>
+        <v>294.6620291372143</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019087</v>
+        <v>187.8189404019089</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267286</v>
+        <v>65.17929883267293</v>
       </c>
       <c r="H23" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I23" t="n">
-        <v>70.94848926897392</v>
+        <v>70.94848926897387</v>
       </c>
       <c r="J23" t="n">
-        <v>70.94848926897392</v>
+        <v>255.9765947296816</v>
       </c>
       <c r="K23" t="n">
-        <v>70.94848926897392</v>
+        <v>255.9765947296816</v>
       </c>
       <c r="L23" t="n">
-        <v>117.7218274992678</v>
+        <v>442.6533480097574</v>
       </c>
       <c r="M23" t="n">
-        <v>198.6421382224195</v>
+        <v>523.5736587329091</v>
       </c>
       <c r="N23" t="n">
-        <v>274.0293881556576</v>
+        <v>598.9609086661471</v>
       </c>
       <c r="O23" t="n">
-        <v>308.3060717890871</v>
+        <v>633.2375922995766</v>
       </c>
       <c r="P23" t="n">
-        <v>308.3060717890871</v>
+        <v>633.2375922995766</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4829784168832</v>
+        <v>633.2375922995766</v>
       </c>
       <c r="R23" t="n">
-        <v>564.0214906197983</v>
+        <v>633.2375922995766</v>
       </c>
       <c r="S23" t="n">
-        <v>633.2375922995757</v>
+        <v>633.2375922995766</v>
       </c>
       <c r="T23" t="n">
-        <v>707.4481717933581</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023254</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557691</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338441</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059201</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075476</v>
+        <v>540.9705567075483</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.07305546410173</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="C24" t="n">
-        <v>68.07305546410173</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="D24" t="n">
-        <v>68.07305546410173</v>
+        <v>302.5165329533432</v>
       </c>
       <c r="E24" t="n">
-        <v>68.07305546410173</v>
+        <v>302.5165329533432</v>
       </c>
       <c r="F24" t="n">
-        <v>68.07305546410173</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="G24" t="n">
-        <v>68.07305546410173</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="H24" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I24" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J24" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635114</v>
+        <v>53.07705719635143</v>
       </c>
       <c r="L24" t="n">
-        <v>170.4486221681694</v>
+        <v>170.4486221681697</v>
       </c>
       <c r="M24" t="n">
-        <v>352.170366648667</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287426</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110294</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023254</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.3338450905389</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R24" t="n">
-        <v>747.3338450905389</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S24" t="n">
-        <v>747.3338450905389</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="T24" t="n">
-        <v>747.3338450905389</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="U24" t="n">
-        <v>556.8667975646993</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="V24" t="n">
-        <v>366.3997500388595</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="W24" t="n">
-        <v>175.9327025130198</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="X24" t="n">
-        <v>68.07305546410173</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="Y24" t="n">
-        <v>68.07305546410173</v>
+        <v>373.3154131506464</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1021.012157971339</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792724</v>
+        <v>882.892440079273</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962477</v>
+        <v>757.3316491962482</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471533</v>
+        <v>597.7236336471541</v>
       </c>
       <c r="F26" t="n">
-        <v>406.074873069395</v>
+        <v>406.0748730693958</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577061</v>
+        <v>198.6295596577067</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662743</v>
+        <v>63.72957914662737</v>
       </c>
       <c r="I26" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847215</v>
+        <v>171.2683996847211</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629834</v>
+        <v>375.9831015629831</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946298</v>
+        <v>634.0887466946294</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191337</v>
+        <v>926.3413643191336</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153724</v>
@@ -6245,19 +6245,19 @@
         <v>1655.109002436483</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.662612870715</v>
+        <v>1777.662612870714</v>
       </c>
       <c r="R26" t="n">
-        <v>1796.083086100842</v>
+        <v>1796.083086100841</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.898883169497</v>
+        <v>1781.898883169496</v>
       </c>
       <c r="T26" t="n">
         <v>1772.810566182449</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.756487451889</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V26" t="n">
         <v>1627.25870266288</v>
@@ -6269,7 +6269,7 @@
         <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.254848587299</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.7017779609851</v>
+        <v>672.7070563209927</v>
       </c>
       <c r="C27" t="n">
-        <v>196.7017779609851</v>
+        <v>483.2947820539564</v>
       </c>
       <c r="D27" t="n">
-        <v>35.92166172201684</v>
+        <v>322.5146658149881</v>
       </c>
       <c r="E27" t="n">
-        <v>35.92166172201684</v>
+        <v>322.5146658149881</v>
       </c>
       <c r="F27" t="n">
-        <v>35.92166172201684</v>
+        <v>322.5146658149881</v>
       </c>
       <c r="G27" t="n">
-        <v>35.92166172201684</v>
+        <v>172.2677721890704</v>
       </c>
       <c r="H27" t="n">
-        <v>35.92166172201684</v>
+        <v>45.26394568252957</v>
       </c>
       <c r="I27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="J27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="K27" t="n">
-        <v>73.91372875432147</v>
+        <v>73.91372875432145</v>
       </c>
       <c r="L27" t="n">
         <v>191.2852937261397</v>
       </c>
       <c r="M27" t="n">
-        <v>373.0070382066378</v>
+        <v>373.0070382066377</v>
       </c>
       <c r="N27" t="n">
-        <v>577.9583061004874</v>
+        <v>577.9583061004873</v>
       </c>
       <c r="O27" t="n">
         <v>709.7015933827743</v>
@@ -6324,31 +6324,31 @@
         <v>793.3606943740702</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.4450312622838</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="R27" t="n">
-        <v>650.3756995951785</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="S27" t="n">
-        <v>650.3756995951785</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="T27" t="n">
-        <v>531.4602184283681</v>
+        <v>791.8422880327869</v>
       </c>
       <c r="U27" t="n">
-        <v>507.4591265082697</v>
+        <v>767.8411961126885</v>
       </c>
       <c r="V27" t="n">
-        <v>480.0026171674925</v>
+        <v>740.3846867719113</v>
       </c>
       <c r="W27" t="n">
-        <v>210.6040478977838</v>
+        <v>686.6093262577913</v>
       </c>
       <c r="X27" t="n">
-        <v>206.7192622700688</v>
+        <v>682.7245406300764</v>
       </c>
       <c r="Y27" t="n">
-        <v>196.7017779609851</v>
+        <v>672.7070563209927</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="C28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="D28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="E28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="F28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="G28" t="n">
-        <v>35.92166172201684</v>
+        <v>80.2403506639096</v>
       </c>
       <c r="H28" t="n">
-        <v>35.92166172201684</v>
+        <v>80.2403506639096</v>
       </c>
       <c r="I28" t="n">
-        <v>35.92166172201684</v>
+        <v>80.2403506639096</v>
       </c>
       <c r="J28" t="n">
-        <v>35.92166172201684</v>
+        <v>172.545995800564</v>
       </c>
       <c r="K28" t="n">
-        <v>35.92166172201684</v>
+        <v>180.8898523171606</v>
       </c>
       <c r="L28" t="n">
-        <v>35.92166172201684</v>
+        <v>180.8898523171606</v>
       </c>
       <c r="M28" t="n">
-        <v>35.92166172201684</v>
+        <v>180.8898523171606</v>
       </c>
       <c r="N28" t="n">
-        <v>35.92166172201684</v>
+        <v>180.8898523171606</v>
       </c>
       <c r="O28" t="n">
-        <v>210.1709648111473</v>
+        <v>180.8898523171606</v>
       </c>
       <c r="P28" t="n">
-        <v>210.1709648111473</v>
+        <v>180.8898523171606</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177463</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757513</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695572</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024692</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398195</v>
+        <v>48.17092928398183</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063873</v>
+        <v>39.63307197063867</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
     </row>
     <row r="29">
@@ -6440,67 +6440,67 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792733</v>
+        <v>882.892440079273</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962486</v>
+        <v>757.3316491962482</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471542</v>
+        <v>597.723633647154</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693958</v>
+        <v>406.0748730693956</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577069</v>
+        <v>198.6295596577067</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662744</v>
+        <v>63.72957914662737</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847218</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K29" t="n">
         <v>375.9831015629837</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946294</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191342</v>
+        <v>926.3413643191336</v>
       </c>
       <c r="N29" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.669911688507</v>
+        <v>1458.669911688506</v>
       </c>
       <c r="P29" t="n">
         <v>1655.109002436483</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.662612870715</v>
+        <v>1777.662612870714</v>
       </c>
       <c r="R29" t="n">
-        <v>1796.083086100842</v>
+        <v>1796.083086100841</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.898883169497</v>
+        <v>1781.898883169496</v>
       </c>
       <c r="T29" t="n">
         <v>1772.810566182449</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.75648745189</v>
+        <v>1735.756487451889</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X29" t="n">
         <v>1353.778677628125</v>
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56.00912277109356</v>
+        <v>465.5711309902777</v>
       </c>
       <c r="C30" t="n">
-        <v>35.92166172201684</v>
+        <v>465.5711309902777</v>
       </c>
       <c r="D30" t="n">
-        <v>35.92166172201684</v>
+        <v>304.7910147513094</v>
       </c>
       <c r="E30" t="n">
-        <v>35.92166172201684</v>
+        <v>304.7910147513094</v>
       </c>
       <c r="F30" t="n">
-        <v>35.92166172201684</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="G30" t="n">
-        <v>35.92166172201684</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="H30" t="n">
-        <v>35.92166172201684</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="K30" t="n">
-        <v>73.91372875432147</v>
+        <v>73.91372875432145</v>
       </c>
       <c r="L30" t="n">
         <v>191.2852937261397</v>
       </c>
       <c r="M30" t="n">
-        <v>373.0070382066378</v>
+        <v>373.0070382066377</v>
       </c>
       <c r="N30" t="n">
         <v>577.9583061004874</v>
@@ -6561,31 +6561,31 @@
         <v>793.3606943740702</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.4450312622838</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="R30" t="n">
-        <v>786.4450312622838</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="S30" t="n">
-        <v>786.4450312622838</v>
+        <v>599.8380156941996</v>
       </c>
       <c r="T30" t="n">
-        <v>784.9266249210004</v>
+        <v>598.3196093529162</v>
       </c>
       <c r="U30" t="n">
-        <v>545.3023242453133</v>
+        <v>560.7052707819735</v>
       </c>
       <c r="V30" t="n">
-        <v>517.845814904536</v>
+        <v>533.2487614411963</v>
       </c>
       <c r="W30" t="n">
-        <v>248.4472456348274</v>
+        <v>479.4734009270763</v>
       </c>
       <c r="X30" t="n">
-        <v>244.5624600071123</v>
+        <v>475.5886152993613</v>
       </c>
       <c r="Y30" t="n">
-        <v>234.5449756980287</v>
+        <v>465.5711309902777</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="C31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="D31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="E31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="F31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="G31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="H31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="I31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="J31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="K31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="L31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="M31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
       <c r="N31" t="n">
-        <v>35.92166172201684</v>
+        <v>180.8898523171606</v>
       </c>
       <c r="O31" t="n">
-        <v>35.92166172201684</v>
+        <v>180.8898523171606</v>
       </c>
       <c r="P31" t="n">
-        <v>180.8898523171611</v>
+        <v>180.8898523171606</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177463</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757513</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695572</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024692</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398195</v>
+        <v>48.17092928398183</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063873</v>
+        <v>39.63307197063867</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201683</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971341</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792729</v>
+        <v>882.8924400792741</v>
       </c>
       <c r="D32" t="n">
-        <v>757.331649196248</v>
+        <v>757.3316491962494</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471536</v>
+        <v>597.7236336471551</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693952</v>
+        <v>406.0748730693968</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577061</v>
+        <v>198.6295596577079</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662749</v>
+        <v>63.72957914662737</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847216</v>
+        <v>171.2683996847213</v>
       </c>
       <c r="K32" t="n">
-        <v>375.983101562984</v>
+        <v>375.9831015629835</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946302</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191343</v>
+        <v>926.341364319134</v>
       </c>
       <c r="N32" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O32" t="n">
-        <v>1458.669911688507</v>
+        <v>1458.669911688506</v>
       </c>
       <c r="P32" t="n">
         <v>1655.109002436483</v>
@@ -6734,16 +6734,16 @@
         <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
-        <v>1627.25870266288</v>
+        <v>1627.258702662881</v>
       </c>
       <c r="W32" t="n">
-        <v>1501.572351998502</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628126</v>
       </c>
       <c r="Y32" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587301</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>672.707056320992</v>
+        <v>323.7056044675259</v>
       </c>
       <c r="C33" t="n">
-        <v>530.6926981223265</v>
+        <v>323.7056044675259</v>
       </c>
       <c r="D33" t="n">
-        <v>369.9125818833583</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="E33" t="n">
-        <v>196.3493780047727</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="F33" t="n">
-        <v>35.92166172201684</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="G33" t="n">
-        <v>35.92166172201684</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="H33" t="n">
         <v>35.92166172201684</v>
@@ -6780,13 +6780,13 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432147</v>
+        <v>73.91372875432145</v>
       </c>
       <c r="L33" t="n">
         <v>191.2852937261397</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0070382066378</v>
+        <v>373.0070382066377</v>
       </c>
       <c r="N33" t="n">
         <v>577.9583061004874</v>
@@ -6807,22 +6807,22 @@
         <v>793.3606943740702</v>
       </c>
       <c r="T33" t="n">
-        <v>791.8422880327868</v>
+        <v>791.8422880327869</v>
       </c>
       <c r="U33" t="n">
-        <v>767.8411961126883</v>
+        <v>767.8411961126885</v>
       </c>
       <c r="V33" t="n">
-        <v>740.384686771911</v>
+        <v>740.3846867719113</v>
       </c>
       <c r="W33" t="n">
-        <v>686.6093262577908</v>
+        <v>553.2310831599131</v>
       </c>
       <c r="X33" t="n">
-        <v>682.7245406300758</v>
+        <v>549.3462975321982</v>
       </c>
       <c r="Y33" t="n">
-        <v>672.707056320992</v>
+        <v>323.7056044675259</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>35.92166172201684</v>
       </c>
       <c r="C34" t="n">
-        <v>35.92166172201684</v>
+        <v>41.76036974130368</v>
       </c>
       <c r="D34" t="n">
-        <v>35.92166172201684</v>
+        <v>41.76036974130368</v>
       </c>
       <c r="E34" t="n">
-        <v>35.92166172201684</v>
+        <v>112.8332968425534</v>
       </c>
       <c r="F34" t="n">
-        <v>35.92166172201684</v>
+        <v>112.8332968425534</v>
       </c>
       <c r="G34" t="n">
-        <v>35.92166172201684</v>
+        <v>112.8332968425534</v>
       </c>
       <c r="H34" t="n">
-        <v>35.92166172201684</v>
+        <v>112.8332968425534</v>
       </c>
       <c r="I34" t="n">
-        <v>35.92166172201684</v>
+        <v>112.8332968425534</v>
       </c>
       <c r="J34" t="n">
-        <v>35.92166172201684</v>
+        <v>112.8332968425534</v>
       </c>
       <c r="K34" t="n">
-        <v>86.76564459714331</v>
+        <v>112.8332968425534</v>
       </c>
       <c r="L34" t="n">
-        <v>266.2898381224439</v>
+        <v>112.8332968425534</v>
       </c>
       <c r="M34" t="n">
-        <v>266.2898381224439</v>
+        <v>112.8332968425534</v>
       </c>
       <c r="N34" t="n">
-        <v>266.2898381224439</v>
+        <v>112.8332968425534</v>
       </c>
       <c r="O34" t="n">
-        <v>266.2898381224439</v>
+        <v>112.8332968425534</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="S34" t="n">
-        <v>244.099493717747</v>
+        <v>244.0994937177463</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757519</v>
+        <v>233.7015767757513</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695577</v>
+        <v>157.7525140695572</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024696</v>
+        <v>125.7908590024692</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398206</v>
+        <v>48.17092928398183</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063879</v>
+        <v>39.63307197063867</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201684</v>
@@ -6941,31 +6941,31 @@
         <v>51.58890486516582</v>
       </c>
       <c r="L35" t="n">
-        <v>98.36224309545975</v>
+        <v>203.594946805931</v>
       </c>
       <c r="M35" t="n">
-        <v>179.2825538186114</v>
+        <v>284.5152575290826</v>
       </c>
       <c r="N35" t="n">
-        <v>254.6698037518495</v>
+        <v>359.9025074623207</v>
       </c>
       <c r="O35" t="n">
-        <v>512.5236142817321</v>
+        <v>617.7563179922033</v>
       </c>
       <c r="P35" t="n">
-        <v>766.9694782047651</v>
+        <v>872.2021819152363</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.512111304001</v>
+        <v>872.2021819152363</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9393577091843</v>
+        <v>948.6294283204196</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0441935912297</v>
+        <v>992.7342642024651</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.14350728728</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="U35" t="n">
         <v>1041.833577898516</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>705.0199822253163</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="C36" t="n">
-        <v>515.60770795828</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="D36" t="n">
-        <v>354.8275917193117</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2643878407262</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797031</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797031</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797031</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797031</v>
+        <v>73.82473685802553</v>
       </c>
       <c r="J36" t="n">
         <v>20.83667155797031</v>
@@ -7023,7 +7023,7 @@
         <v>176.2003035620932</v>
       </c>
       <c r="M36" t="n">
-        <v>357.9220480425913</v>
+        <v>357.9220480425912</v>
       </c>
       <c r="N36" t="n">
         <v>562.8733159364409</v>
@@ -7038,28 +7038,28 @@
         <v>771.3600410982373</v>
       </c>
       <c r="R36" t="n">
-        <v>771.3600410982373</v>
+        <v>635.290709431132</v>
       </c>
       <c r="S36" t="n">
-        <v>771.3600410982373</v>
+        <v>635.290709431132</v>
       </c>
       <c r="T36" t="n">
-        <v>771.3600410982373</v>
+        <v>635.290709431132</v>
       </c>
       <c r="U36" t="n">
-        <v>771.3600410982373</v>
+        <v>635.290709431132</v>
       </c>
       <c r="V36" t="n">
-        <v>771.3600410982373</v>
+        <v>635.290709431132</v>
       </c>
       <c r="W36" t="n">
-        <v>771.3600410982373</v>
+        <v>627.4150610525382</v>
       </c>
       <c r="X36" t="n">
-        <v>771.3600410982373</v>
+        <v>407.9070666692346</v>
       </c>
       <c r="Y36" t="n">
-        <v>771.3600410982373</v>
+        <v>182.2663736045622</v>
       </c>
     </row>
     <row r="37">
@@ -7072,19 +7072,19 @@
         <v>20.83667155797031</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="H37" t="n">
         <v>56.03657271633964</v>
@@ -7154,13 +7154,13 @@
         <v>544.0768043248357</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749671</v>
+        <v>477.700559074967</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590289</v>
+        <v>377.2770891590288</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144267</v>
+        <v>244.8128742144266</v>
       </c>
       <c r="G38" t="n">
         <v>96.55210643589356</v>
@@ -7169,28 +7169,28 @@
         <v>20.83667155797031</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516582</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J38" t="n">
-        <v>244.942416002927</v>
+        <v>214.1901826957315</v>
       </c>
       <c r="K38" t="n">
-        <v>244.942416002927</v>
+        <v>214.1901826957315</v>
       </c>
       <c r="L38" t="n">
-        <v>291.7157542332209</v>
+        <v>472.0439932256141</v>
       </c>
       <c r="M38" t="n">
-        <v>372.6360649563726</v>
+        <v>729.8978037554966</v>
       </c>
       <c r="N38" t="n">
-        <v>630.4898754862552</v>
+        <v>805.2850536887347</v>
       </c>
       <c r="O38" t="n">
-        <v>664.7665591196848</v>
+        <v>850.512111304001</v>
       </c>
       <c r="P38" t="n">
-        <v>669.9517276947131</v>
+        <v>850.512111304001</v>
       </c>
       <c r="Q38" t="n">
         <v>850.512111304001</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>371.0290620639748</v>
+        <v>532.1063641543544</v>
       </c>
       <c r="C39" t="n">
-        <v>181.6167877969386</v>
+        <v>342.6940898873181</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83667155797031</v>
+        <v>342.6940898873181</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83667155797031</v>
+        <v>342.6940898873181</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83667155797031</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797031</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83667155797031</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83667155797031</v>
+        <v>73.82473685802553</v>
       </c>
       <c r="J39" t="n">
         <v>20.83667155797031</v>
@@ -7260,7 +7260,7 @@
         <v>176.2003035620932</v>
       </c>
       <c r="M39" t="n">
-        <v>357.9220480425913</v>
+        <v>357.9220480425912</v>
       </c>
       <c r="N39" t="n">
         <v>562.8733159364409</v>
@@ -7272,31 +7272,31 @@
         <v>778.2757042100237</v>
       </c>
       <c r="Q39" t="n">
-        <v>775.2056080555824</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="R39" t="n">
-        <v>775.2056080555824</v>
+        <v>635.290709431132</v>
       </c>
       <c r="S39" t="n">
-        <v>775.2056080555824</v>
+        <v>635.290709431132</v>
       </c>
       <c r="T39" t="n">
-        <v>775.2056080555824</v>
+        <v>635.290709431132</v>
       </c>
       <c r="U39" t="n">
-        <v>775.2056080555824</v>
+        <v>635.290709431132</v>
       </c>
       <c r="V39" t="n">
-        <v>775.2056080555824</v>
+        <v>635.290709431132</v>
       </c>
       <c r="W39" t="n">
-        <v>775.2056080555824</v>
+        <v>635.290709431132</v>
       </c>
       <c r="X39" t="n">
-        <v>775.2056080555824</v>
+        <v>635.290709431132</v>
       </c>
       <c r="Y39" t="n">
-        <v>549.56491499091</v>
+        <v>532.1063641543544</v>
       </c>
     </row>
     <row r="40">
@@ -7351,10 +7351,10 @@
         <v>20.83667155797031</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="S40" t="n">
         <v>56.03657271633964</v>
@@ -7412,16 +7412,16 @@
         <v>190.670379421188</v>
       </c>
       <c r="K41" t="n">
-        <v>422.6396211673108</v>
+        <v>190.670379421188</v>
       </c>
       <c r="L41" t="n">
-        <v>523.4075114924618</v>
+        <v>237.4437176514819</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3278222156135</v>
+        <v>556.9508751438469</v>
       </c>
       <c r="N41" t="n">
-        <v>679.7150721488516</v>
+        <v>679.7150721488517</v>
       </c>
       <c r="O41" t="n">
         <v>952.5786025514944</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06910159062234</v>
+        <v>189.4988036372143</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06910159062234</v>
+        <v>189.4988036372143</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06910159062234</v>
+        <v>189.4988036372143</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06910159062234</v>
+        <v>189.4988036372143</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06910159062234</v>
+        <v>189.4988036372143</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06910159062234</v>
+        <v>189.4988036372143</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06910159062234</v>
+        <v>189.4988036372143</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06910159062234</v>
+        <v>81.05716689067756</v>
       </c>
       <c r="J42" t="n">
         <v>28.06910159062234</v>
@@ -7512,28 +7512,28 @@
         <v>785.5081342426757</v>
       </c>
       <c r="R42" t="n">
-        <v>785.5081342426757</v>
+        <v>698.52167358261</v>
       </c>
       <c r="S42" t="n">
-        <v>785.5081342426757</v>
+        <v>698.52167358261</v>
       </c>
       <c r="T42" t="n">
-        <v>785.5081342426757</v>
+        <v>698.52167358261</v>
       </c>
       <c r="U42" t="n">
-        <v>545.8838335669886</v>
+        <v>458.897372906923</v>
       </c>
       <c r="V42" t="n">
-        <v>302.8041154706227</v>
+        <v>458.897372906923</v>
       </c>
       <c r="W42" t="n">
-        <v>33.40554620091405</v>
+        <v>189.4988036372143</v>
       </c>
       <c r="X42" t="n">
-        <v>28.06910159062234</v>
+        <v>189.4988036372143</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.06910159062234</v>
+        <v>189.4988036372143</v>
       </c>
     </row>
     <row r="43">
@@ -7558,37 +7558,37 @@
         <v>28.06910159062234</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06910159062234</v>
+        <v>92.97810218059325</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06910159062234</v>
+        <v>92.97810218059325</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06910159062234</v>
+        <v>92.97810218059325</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1759968085602</v>
+        <v>92.97810218059325</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1759968085602</v>
+        <v>92.97810218059325</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1759968085602</v>
+        <v>92.97810218059325</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1759968085602</v>
+        <v>92.97810218059325</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1759968085602</v>
+        <v>92.97810218059325</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1759968085602</v>
+        <v>92.97810218059325</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1759968085602</v>
+        <v>92.97810218059325</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1759968085602</v>
+        <v>92.97810218059325</v>
       </c>
       <c r="R43" t="n">
         <v>130.1759968085602</v>
@@ -7631,19 +7631,19 @@
         <v>610.4395019418009</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173169</v>
+        <v>478.639403817317</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7985606641691</v>
+        <v>314.7985606641693</v>
       </c>
       <c r="G44" t="n">
-        <v>135.1611646770911</v>
+        <v>135.1611646770912</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J44" t="n">
         <v>190.670379421188</v>
@@ -7655,25 +7655,25 @@
         <v>707.999806166818</v>
       </c>
       <c r="M44" t="n">
-        <v>788.9201168899697</v>
+        <v>977.8296031335435</v>
       </c>
       <c r="N44" t="n">
-        <v>864.3073668232078</v>
+        <v>1291.803699835995</v>
       </c>
       <c r="O44" t="n">
-        <v>952.578602551494</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.272233167331</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="Q44" t="n">
         <v>1326.080383469424</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.755396567411</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="S44" t="n">
-        <v>1385.107999142261</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>135.8561507782553</v>
+        <v>322.8910816729907</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06910159062233</v>
+        <v>322.8910816729907</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06910159062233</v>
+        <v>162.1109654340225</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06910159062233</v>
+        <v>81.05716689067756</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06910159062233</v>
+        <v>81.05716689067756</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06910159062233</v>
+        <v>81.05716689067756</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06910159062233</v>
+        <v>81.05716689067756</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062233</v>
+        <v>81.05716689067756</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="K45" t="n">
         <v>66.06116862292697</v>
@@ -7755,22 +7755,22 @@
         <v>785.5081342426757</v>
       </c>
       <c r="T45" t="n">
-        <v>785.5081342426757</v>
+        <v>568.3665191458037</v>
       </c>
       <c r="U45" t="n">
-        <v>785.5081342426757</v>
+        <v>568.3665191458037</v>
       </c>
       <c r="V45" t="n">
-        <v>785.5081342426757</v>
+        <v>568.3665191458037</v>
       </c>
       <c r="W45" t="n">
-        <v>759.5406911531663</v>
+        <v>542.3990760562943</v>
       </c>
       <c r="X45" t="n">
-        <v>540.0326967698627</v>
+        <v>322.8910816729907</v>
       </c>
       <c r="Y45" t="n">
-        <v>314.3920037051903</v>
+        <v>322.8910816729907</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="M46" t="n">
         <v>130.1759968085602</v>
@@ -7843,13 +7843,13 @@
         <v>77.8811138844992</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062234</v>
       </c>
     </row>
   </sheetData>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041438</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9009,7 +9009,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>240.3045437566415</v>
       </c>
       <c r="M15" t="n">
         <v>301.77688131</v>
@@ -9021,7 +9021,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786794</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.3734735841511</v>
+        <v>171.3734735841509</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9483,7 +9483,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566417</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
@@ -9717,16 +9717,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841512</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.7768813099996</v>
+        <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041437</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.195214002696474</v>
+        <v>195.7575910532781</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566235</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4425103176719</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E11" t="n">
-        <v>193.1492627370808</v>
+        <v>4.586885686499414</v>
       </c>
       <c r="F11" t="n">
-        <v>36.30722326487663</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G11" t="n">
-        <v>240.5081876210495</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H11" t="n">
-        <v>168.688308049446</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.6671655938419</v>
+        <v>62.66716559384201</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.17968824550869</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13476116065502</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673091</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845967</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W11" t="n">
         <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
-        <v>125.2125613973498</v>
+        <v>67.15837928282457</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.39354104331304</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.757591053278</v>
+        <v>7.195214002696588</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D14" t="n">
         <v>159.442510317672</v>
       </c>
       <c r="E14" t="n">
-        <v>4.586885686499357</v>
+        <v>193.1492627370809</v>
       </c>
       <c r="F14" t="n">
-        <v>58.62811834253571</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G14" t="n">
-        <v>240.5081876210495</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494461</v>
+        <v>12.36121554065237</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384196</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550866</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.134761160655</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673096</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845967</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>159.5668145012116</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4530649701508</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.39354104331309</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44096.59975882298</v>
+        <v>44096.59975882297</v>
       </c>
       <c r="C2" t="n">
+        <v>44096.59975882297</v>
+      </c>
+      <c r="D2" t="n">
         <v>44096.59975882299</v>
       </c>
-      <c r="D2" t="n">
-        <v>44096.59975882297</v>
-      </c>
       <c r="E2" t="n">
-        <v>37999.504451024</v>
+        <v>37999.50445102396</v>
       </c>
       <c r="F2" t="n">
-        <v>37999.50445102396</v>
+        <v>37999.50445102395</v>
       </c>
       <c r="G2" t="n">
         <v>44185.92744292678</v>
       </c>
       <c r="H2" t="n">
-        <v>44185.92744292678</v>
+        <v>44185.92744292679</v>
       </c>
       <c r="I2" t="n">
         <v>44185.92744292677</v>
       </c>
       <c r="J2" t="n">
-        <v>44185.92744292684</v>
+        <v>44185.92744292682</v>
       </c>
       <c r="K2" t="n">
-        <v>44185.92744292683</v>
+        <v>44185.9274429268</v>
       </c>
       <c r="L2" t="n">
         <v>44185.9274429268</v>
       </c>
       <c r="M2" t="n">
-        <v>44185.92744292676</v>
+        <v>44185.92744292677</v>
       </c>
       <c r="N2" t="n">
-        <v>44185.92744292678</v>
+        <v>44185.92744292675</v>
       </c>
       <c r="O2" t="n">
-        <v>44185.92744292681</v>
+        <v>44185.92744292683</v>
       </c>
       <c r="P2" t="n">
-        <v>44185.92744292681</v>
+        <v>44185.92744292682</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842064</v>
+        <v>280312.8421842062</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400476</v>
+        <v>95275.95397400478</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143645.0035243413</v>
+        <v>143645.0035243412</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.9539740047</v>
+        <v>95275.95397400478</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145977</v>
+        <v>46874.16014145963</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660012</v>
+        <v>72403.48181660016</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>435522.6386213152</v>
       </c>
       <c r="E4" t="n">
-        <v>325346.2938622805</v>
+        <v>325346.2938622804</v>
       </c>
       <c r="F4" t="n">
         <v>325346.2938622804</v>
@@ -26442,10 +26442,10 @@
         <v>396695.6540483334</v>
       </c>
       <c r="K4" t="n">
-        <v>396695.6540483334</v>
+        <v>396695.6540483335</v>
       </c>
       <c r="L4" t="n">
-        <v>396695.6540483333</v>
+        <v>396695.6540483335</v>
       </c>
       <c r="M4" t="n">
         <v>395870.6270705321</v>
@@ -26482,13 +26482,13 @@
         <v>28663.94612301864</v>
       </c>
       <c r="G5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131939</v>
       </c>
       <c r="H5" t="n">
         <v>38676.1388413194</v>
       </c>
       <c r="I5" t="n">
-        <v>38676.13884131939</v>
+        <v>38676.1388413194</v>
       </c>
       <c r="J5" t="n">
         <v>47453.77647951488</v>
@@ -26509,7 +26509,7 @@
         <v>43800.23675152496</v>
       </c>
       <c r="P5" t="n">
-        <v>43800.23675152495</v>
+        <v>43800.23675152496</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-425053.6388624922</v>
+        <v>-425058.1052466974</v>
       </c>
       <c r="C6" t="n">
-        <v>-425053.6388624923</v>
+        <v>-425058.1052466975</v>
       </c>
       <c r="D6" t="n">
-        <v>-425053.6388624922</v>
+        <v>-425058.1052466974</v>
       </c>
       <c r="E6" t="n">
-        <v>-596323.5777184814</v>
+        <v>-596632.8988680765</v>
       </c>
       <c r="F6" t="n">
-        <v>-316010.7355342751</v>
+        <v>-316320.0566838703</v>
       </c>
       <c r="G6" t="n">
-        <v>-485575.4356393852</v>
+        <v>-485575.4356393851</v>
       </c>
       <c r="H6" t="n">
+        <v>-390299.4816653804</v>
+      </c>
+      <c r="I6" t="n">
         <v>-390299.4816653805</v>
       </c>
-      <c r="I6" t="n">
-        <v>-390299.4816653804</v>
-      </c>
       <c r="J6" t="n">
-        <v>-543608.5066092628</v>
+        <v>-543608.5066092627</v>
       </c>
       <c r="K6" t="n">
-        <v>-399963.5030849215</v>
+        <v>-399963.5030849216</v>
       </c>
       <c r="L6" t="n">
-        <v>-495239.4570589261</v>
+        <v>-495239.4570589263</v>
       </c>
       <c r="M6" t="n">
-        <v>-439473.8734350701</v>
+        <v>-439473.87343507</v>
       </c>
       <c r="N6" t="n">
-        <v>-392599.7132936103</v>
+        <v>-392599.7132936104</v>
       </c>
       <c r="O6" t="n">
         <v>-468275.6615684681</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G2" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M2" t="n">
         <v>272.0596768448573</v>
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154699</v>
       </c>
       <c r="F3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154699</v>
       </c>
       <c r="G3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154699</v>
       </c>
       <c r="H3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154699</v>
       </c>
       <c r="I3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154699</v>
       </c>
       <c r="J3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154699</v>
       </c>
       <c r="K3" t="n">
         <v>101.25496831547</v>
@@ -26808,13 +26808,13 @@
         <v>188.5623770505815</v>
       </c>
       <c r="I4" t="n">
-        <v>188.5623770505813</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252103</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252104</v>
+        <v>449.0207715252103</v>
       </c>
       <c r="L4" t="n">
         <v>449.0207715252104</v>
@@ -26829,7 +26829,7 @@
         <v>350.8637698827793</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8637698827791</v>
+        <v>350.8637698827793</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.094942467506</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.3720342005268</v>
+        <v>94.37203420052683</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.094942467506</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682471</v>
+        <v>58.59270017682454</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406667</v>
+        <v>63.30917227406673</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.25496831547</v>
+        <v>101.2549683154699</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746291</v>
+        <v>260.4583944746287</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.094942467506</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.3720342005268</v>
+        <v>94.37203420052683</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J11" t="n">
-        <v>178.3296493245553</v>
+        <v>76.75309993802787</v>
       </c>
       <c r="K11" t="n">
-        <v>160.0433975822946</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3165808583654</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>87.08922232650633</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245553</v>
+        <v>15.04365268017756</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.3296493245553</v>
+        <v>89.67545097688972</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504342</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>8.157950031786783</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X12" t="n">
-        <v>28.75053738888909</v>
+        <v>28.75053738888911</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.3296493245553</v>
+        <v>142.8665883822216</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I13" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K13" t="n">
-        <v>178.3296493245553</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L13" t="n">
-        <v>32.12940745055729</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M13" t="n">
-        <v>25.19323846374675</v>
+        <v>50.72007976995801</v>
       </c>
       <c r="N13" t="n">
-        <v>16.49709222984363</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="O13" t="n">
-        <v>178.3296493245553</v>
+        <v>37.45757960830508</v>
       </c>
       <c r="P13" t="n">
-        <v>159.2319933265566</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q13" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
-        <v>178.3296493245553</v>
+        <v>76.75309993802787</v>
       </c>
       <c r="K14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L14" t="n">
-        <v>141.3165808583654</v>
+        <v>68.87738860248821</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4136397442804</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P14" t="n">
-        <v>18.72681672392926</v>
+        <v>15.04365268017756</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.3296493245553</v>
+        <v>89.67545097688972</v>
       </c>
       <c r="R14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="15">
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>165.7511101814764</v>
       </c>
       <c r="C15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>94.97970205743516</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7444246896586</v>
@@ -28454,25 +28454,25 @@
         <v>134.7086383504342</v>
       </c>
       <c r="S15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U15" t="n">
-        <v>48.66568061834865</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V15" t="n">
-        <v>52.08654386482073</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X15" t="n">
-        <v>178.3296493245553</v>
+        <v>28.75053738888911</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="16">
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28506,52 +28506,52 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="M16" t="n">
-        <v>56.99602532294558</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="N16" t="n">
-        <v>178.3296493245553</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O16" t="n">
-        <v>37.45757960830507</v>
+        <v>44.09678496797551</v>
       </c>
       <c r="P16" t="n">
-        <v>58.4603693146088</v>
+        <v>58.46036931460881</v>
       </c>
       <c r="Q16" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>76.75309993802786</v>
+        <v>76.75309993802787</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273233</v>
+        <v>76.42047532699672</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017754</v>
+        <v>15.04365268017756</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.4097000958765</v>
+        <v>278.2378280274712</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4245917920612</v>
+        <v>194.860438051743</v>
       </c>
       <c r="S17" t="n">
         <v>297.4245917920612</v>
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7444246896586</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7086383504342</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.5874518930719</v>
@@ -28706,10 +28706,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>34.6680587456037</v>
+        <v>44.86624250797874</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>34.82190908344413</v>
       </c>
     </row>
     <row r="19">
@@ -28749,19 +28749,19 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L19" t="n">
-        <v>32.12940745055729</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M19" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374676</v>
       </c>
       <c r="N19" t="n">
-        <v>16.49709222984363</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O19" t="n">
-        <v>37.45757960830507</v>
+        <v>37.45757960830508</v>
       </c>
       <c r="P19" t="n">
-        <v>58.4603693146088</v>
+        <v>58.46036931460881</v>
       </c>
       <c r="Q19" t="n">
         <v>127.204364743505</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4245917920613</v>
+        <v>264.5964638604665</v>
       </c>
       <c r="J20" t="n">
-        <v>76.75309993802786</v>
+        <v>76.75309993802787</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273233</v>
+        <v>6.684449518273247</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017754</v>
+        <v>15.04365268017756</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.4097000958764</v>
+        <v>278.2378280274712</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>101.159535873103</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7337882414754</v>
+        <v>96.58058857206599</v>
       </c>
       <c r="I21" t="n">
         <v>107.3572203790713</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.846506480668534</v>
       </c>
       <c r="R21" t="n">
         <v>134.7086383504342</v>
@@ -28934,7 +28934,7 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280576689302</v>
+        <v>48.66568061834865</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.8219090834441</v>
       </c>
     </row>
     <row r="22">
@@ -28986,19 +28986,19 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055729</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374676</v>
       </c>
       <c r="N22" t="n">
-        <v>16.49709222984363</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45757960830507</v>
+        <v>37.45757960830508</v>
       </c>
       <c r="P22" t="n">
-        <v>58.4603693146088</v>
+        <v>58.46036931460881</v>
       </c>
       <c r="Q22" t="n">
         <v>127.204364743505</v>
@@ -29035,37 +29035,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>76.75309993802786</v>
+        <v>263.650176160965</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684449518273233</v>
+        <v>6.684449518273247</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29077,34 +29077,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017754</v>
+        <v>15.04365268017756</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.4097000958757</v>
+        <v>89.67545097688972</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4245917920613</v>
+        <v>194.860438051743</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4245917920613</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4245917920613</v>
+        <v>297.4245917920612</v>
       </c>
     </row>
     <row r="24">
@@ -29120,25 +29120,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>89.08142368124841</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.846506480668534</v>
       </c>
       <c r="R24" t="n">
         <v>134.7086383504342</v>
@@ -29171,16 +29171,16 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
-        <v>48.66568061834883</v>
+        <v>48.6656806183486</v>
       </c>
       <c r="V24" t="n">
-        <v>52.0865438648209</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>78.14220652643024</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>110.5318638610418</v>
+        <v>28.75053738888903</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29223,19 +29223,19 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055729</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M25" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374676</v>
       </c>
       <c r="N25" t="n">
-        <v>16.49709222984363</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O25" t="n">
-        <v>37.45757960830507</v>
+        <v>37.45757960830508</v>
       </c>
       <c r="P25" t="n">
-        <v>58.4603693146088</v>
+        <v>58.46036931460881</v>
       </c>
       <c r="Q25" t="n">
         <v>127.204364743505</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680322</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29366,13 +29366,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3572203790713</v>
+        <v>98.10835925816372</v>
       </c>
       <c r="J27" t="n">
         <v>52.45818464705467</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.846506480668534</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S27" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>97.24387259076099</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="28">
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7006242014745</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H28" t="n">
         <v>165.8230575663656</v>
@@ -29454,52 +29454,52 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2289512774728</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K28" t="n">
-        <v>67.01246855587067</v>
+        <v>75.44060645142281</v>
       </c>
       <c r="L28" t="n">
-        <v>32.12940745055729</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M28" t="n">
-        <v>25.19323846374675</v>
+        <v>25.19323846374676</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49709222984363</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O28" t="n">
-        <v>213.4669766680327</v>
+        <v>37.45757960830508</v>
       </c>
       <c r="P28" t="n">
-        <v>58.4603693146088</v>
+        <v>58.46036931460881</v>
       </c>
       <c r="Q28" t="n">
-        <v>183.890095360976</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R28" t="n">
         <v>203.4231839810569</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="30">
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>167.63156508578</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7444246896586</v>
@@ -29609,7 +29609,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>52.45818464705467</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R30" t="n">
         <v>134.7086383504342</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>199.9898624836968</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="31">
@@ -29697,46 +29697,46 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L31" t="n">
-        <v>32.12940745055729</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M31" t="n">
         <v>25.19323846374675</v>
       </c>
       <c r="N31" t="n">
-        <v>16.49709222984363</v>
+        <v>162.9296079825141</v>
       </c>
       <c r="O31" t="n">
         <v>37.45757960830507</v>
       </c>
       <c r="P31" t="n">
-        <v>204.8928850672797</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R31" t="n">
         <v>203.4231839810569</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K32" t="n">
-        <v>213.4669766680332</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="33">
@@ -29828,22 +29828,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>46.92393690768708</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>107.3572203790713</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668527</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R33" t="n">
         <v>134.7086383504342</v>
@@ -29879,22 +29879,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W33" t="n">
-        <v>213.4669766680327</v>
+        <v>81.42251600113332</v>
       </c>
       <c r="X33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y33" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29907,13 +29907,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>172.3548658399389</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -29931,22 +29931,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K34" t="n">
-        <v>118.3700270155944</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L34" t="n">
-        <v>213.4669766680327</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M34" t="n">
         <v>25.19323846374675</v>
       </c>
       <c r="N34" t="n">
-        <v>16.49709222984363</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O34" t="n">
         <v>37.45757960830507</v>
       </c>
       <c r="P34" t="n">
-        <v>58.4603693146088</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q34" t="n">
         <v>127.204364743505</v>
@@ -29955,25 +29955,25 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>272.0596768448573</v>
       </c>
       <c r="J35" t="n">
-        <v>76.75309993802786</v>
+        <v>76.75309993802787</v>
       </c>
       <c r="K35" t="n">
-        <v>6.684449518273233</v>
+        <v>6.68444951827324</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>106.2956603136073</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30028,7 +30028,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="Q35" t="n">
-        <v>174.061949056926</v>
+        <v>89.67545097688972</v>
       </c>
       <c r="R35" t="n">
         <v>272.0596768448573</v>
@@ -30040,7 +30040,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0596768448573</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V35" t="n">
         <v>272.0596768448573</v>
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>111.073836113474</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7444246896586</v>
@@ -30083,10 +30083,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705467</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7086383504342</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.5874518930719</v>
@@ -30125,13 +30125,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>258.9076916822038</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30144,7 +30144,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>166.4571809719723</v>
+        <v>202.0126366874969</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -30159,7 +30159,7 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H37" t="n">
-        <v>201.3785132818902</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I37" t="n">
         <v>164.8484353357569</v>
@@ -30171,13 +30171,13 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055729</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M37" t="n">
         <v>25.19323846374675</v>
       </c>
       <c r="N37" t="n">
-        <v>16.49709222984363</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O37" t="n">
         <v>37.45757960830507</v>
@@ -30241,31 +30241,31 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0596768448573</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="K38" t="n">
-        <v>6.684449518273233</v>
+        <v>6.68444951827324</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2125982824128</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>178.7207068754858</v>
       </c>
       <c r="N38" t="n">
-        <v>184.3096571683278</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>11.06098382003714</v>
       </c>
       <c r="P38" t="n">
-        <v>20.28119669535769</v>
+        <v>15.04365268017755</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0596768448573</v>
+        <v>89.67545097688972</v>
       </c>
       <c r="R38" t="n">
         <v>272.0596768448573</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7444246896586</v>
@@ -30320,10 +30320,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705467</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.80711128777161</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7086383504342</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>191.5874518930719</v>
@@ -30368,7 +30368,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>121.2317843100159</v>
       </c>
     </row>
     <row r="40">
@@ -30408,13 +30408,13 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055729</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M40" t="n">
         <v>25.19323846374675</v>
       </c>
       <c r="N40" t="n">
-        <v>16.49709222984363</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O40" t="n">
         <v>37.45757960830507</v>
@@ -30423,13 +30423,13 @@
         <v>58.4603693146088</v>
       </c>
       <c r="Q40" t="n">
-        <v>162.7598204590296</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R40" t="n">
         <v>203.4231839810569</v>
       </c>
       <c r="S40" t="n">
-        <v>235.4354176286827</v>
+        <v>270.9908733442072</v>
       </c>
       <c r="T40" t="n">
         <v>223.7609144406078</v>
@@ -30484,16 +30484,16 @@
         <v>240.9968149183972</v>
       </c>
       <c r="K41" t="n">
+        <v>6.68444951827324</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="L41" t="n">
-        <v>54.53995161096677</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>47.8555020926937</v>
       </c>
       <c r="O41" t="n">
         <v>240.9968149183972</v>
@@ -30557,10 +30557,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705467</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,10 +30581,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668527</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7086383504342</v>
+        <v>48.59204229696908</v>
       </c>
       <c r="S42" t="n">
         <v>191.5874518930719</v>
@@ -30596,13 +30596,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>212.0298342752818</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30630,7 +30630,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.7006242014745</v>
+        <v>234.2652712620512</v>
       </c>
       <c r="H43" t="n">
         <v>165.8230575663656</v>
@@ -30639,19 +30639,19 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J43" t="n">
-        <v>223.3672292753898</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K43" t="n">
         <v>67.01246855587067</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055729</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M43" t="n">
         <v>25.19323846374675</v>
       </c>
       <c r="N43" t="n">
-        <v>16.49709222984363</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O43" t="n">
         <v>37.45757960830507</v>
@@ -30663,7 +30663,7 @@
         <v>127.204364743505</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4231839810569</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="S43" t="n">
         <v>235.4354176286827</v>
@@ -30727,19 +30727,19 @@
         <v>240.9968149183972</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>190.8176628722969</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="O44" t="n">
-        <v>54.53995161096637</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>240.9968149183972</v>
+        <v>15.04365268017755</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.9968149183972</v>
+        <v>89.67545097688972</v>
       </c>
       <c r="R44" t="n">
         <v>240.9968149183972</v>
@@ -30773,16 +30773,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>80.80897282860933</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>91.58431128188823</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30797,7 +30797,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705467</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668527</v>
+        <v>6.846506480668531</v>
       </c>
       <c r="R45" t="n">
         <v>134.7086383504342</v>
@@ -30827,7 +30827,7 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280576689302</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30882,13 +30882,13 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055729</v>
+        <v>32.1294074505573</v>
       </c>
       <c r="M46" t="n">
         <v>128.3315164616638</v>
       </c>
       <c r="N46" t="n">
-        <v>16.49709222984363</v>
+        <v>16.49709222984364</v>
       </c>
       <c r="O46" t="n">
         <v>37.45757960830507</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.407055149006914</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767061</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I11" t="n">
         <v>15.69299363208907</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302561</v>
+        <v>34.5482969530256</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048828</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306034</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517624</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232042</v>
       </c>
       <c r="R11" t="n">
-        <v>25.56967800380559</v>
+        <v>25.56967800380558</v>
       </c>
       <c r="S11" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995062</v>
       </c>
       <c r="T11" t="n">
         <v>1.781883914777767</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055311</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>2.103428681421367</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645652</v>
       </c>
       <c r="J12" t="n">
         <v>20.57672898569376</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972319</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L12" t="n">
-        <v>47.28893590997492</v>
+        <v>47.2889359099749</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193111</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876696</v>
       </c>
       <c r="P12" t="n">
-        <v>41.58904538225408</v>
+        <v>41.58904538225406</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144752</v>
       </c>
       <c r="R12" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S12" t="n">
         <v>4.045422554868066</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841211</v>
       </c>
       <c r="U12" t="n">
         <v>0.01432853325218915</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1825909264705196</v>
+        <v>0.1825909264705195</v>
       </c>
       <c r="H13" t="n">
         <v>1.623399328074257</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222535</v>
       </c>
       <c r="J13" t="n">
         <v>12.90917850146573</v>
@@ -31923,16 +31923,16 @@
         <v>21.21374582084763</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362615</v>
       </c>
       <c r="M13" t="n">
-        <v>28.62195768301063</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N13" t="n">
         <v>27.94139150252962</v>
       </c>
       <c r="O13" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785126</v>
       </c>
       <c r="P13" t="n">
         <v>22.08354259785265</v>
@@ -31941,16 +31941,16 @@
         <v>15.28950021563596</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119904</v>
       </c>
       <c r="S13" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T13" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831288</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.407055149006914</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767061</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I14" t="n">
         <v>15.69299363208907</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302561</v>
+        <v>34.5482969530256</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048828</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M14" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306034</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517624</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232042</v>
       </c>
       <c r="R14" t="n">
-        <v>25.56967800380559</v>
+        <v>25.56967800380558</v>
       </c>
       <c r="S14" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995062</v>
       </c>
       <c r="T14" t="n">
         <v>1.781883914777767</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055311</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>2.103428681421367</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645652</v>
       </c>
       <c r="J15" t="n">
         <v>20.57672898569376</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972319</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L15" t="n">
-        <v>47.28893590997492</v>
+        <v>47.2889359099749</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193111</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876696</v>
       </c>
       <c r="P15" t="n">
-        <v>41.58904538225408</v>
+        <v>41.58904538225406</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144752</v>
       </c>
       <c r="R15" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S15" t="n">
         <v>4.045422554868066</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841211</v>
       </c>
       <c r="U15" t="n">
         <v>0.01432853325218915</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1825909264705196</v>
+        <v>0.1825909264705195</v>
       </c>
       <c r="H16" t="n">
         <v>1.623399328074257</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222535</v>
       </c>
       <c r="J16" t="n">
         <v>12.90917850146573</v>
@@ -32160,16 +32160,16 @@
         <v>21.21374582084763</v>
       </c>
       <c r="L16" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362615</v>
       </c>
       <c r="M16" t="n">
-        <v>28.62195768301063</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N16" t="n">
         <v>27.94139150252962</v>
       </c>
       <c r="O16" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785126</v>
       </c>
       <c r="P16" t="n">
         <v>22.08354259785265</v>
@@ -32178,16 +32178,16 @@
         <v>15.28950021563596</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119904</v>
       </c>
       <c r="S16" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T16" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831288</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.407055149006914</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767061</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I17" t="n">
         <v>15.69299363208907</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302561</v>
+        <v>34.5482969530256</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048828</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M17" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306034</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517624</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232042</v>
       </c>
       <c r="R17" t="n">
-        <v>25.56967800380559</v>
+        <v>25.56967800380558</v>
       </c>
       <c r="S17" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995062</v>
       </c>
       <c r="T17" t="n">
         <v>1.781883914777767</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055311</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>2.103428681421367</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645652</v>
       </c>
       <c r="J18" t="n">
         <v>20.57672898569376</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972319</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L18" t="n">
-        <v>47.28893590997492</v>
+        <v>47.2889359099749</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193111</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O18" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876696</v>
       </c>
       <c r="P18" t="n">
-        <v>41.58904538225408</v>
+        <v>41.58904538225406</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144752</v>
       </c>
       <c r="R18" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S18" t="n">
         <v>4.045422554868066</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841211</v>
       </c>
       <c r="U18" t="n">
         <v>0.01432853325218915</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1825909264705196</v>
+        <v>0.1825909264705195</v>
       </c>
       <c r="H19" t="n">
         <v>1.623399328074257</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222535</v>
       </c>
       <c r="J19" t="n">
         <v>12.90917850146573</v>
@@ -32397,16 +32397,16 @@
         <v>21.21374582084763</v>
       </c>
       <c r="L19" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362615</v>
       </c>
       <c r="M19" t="n">
-        <v>28.62195768301063</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N19" t="n">
         <v>27.94139150252962</v>
       </c>
       <c r="O19" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785126</v>
       </c>
       <c r="P19" t="n">
         <v>22.08354259785265</v>
@@ -32415,16 +32415,16 @@
         <v>15.28950021563596</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119904</v>
       </c>
       <c r="S19" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T19" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831288</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.407055149006914</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767061</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I20" t="n">
         <v>15.69299363208907</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302561</v>
+        <v>34.5482969530256</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048828</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306034</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517624</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232042</v>
       </c>
       <c r="R20" t="n">
-        <v>25.56967800380559</v>
+        <v>25.56967800380558</v>
       </c>
       <c r="S20" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995062</v>
       </c>
       <c r="T20" t="n">
         <v>1.781883914777767</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055311</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>2.103428681421367</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645652</v>
       </c>
       <c r="J21" t="n">
         <v>20.57672898569376</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972319</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997492</v>
+        <v>47.2889359099749</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193111</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O21" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876696</v>
       </c>
       <c r="P21" t="n">
-        <v>41.58904538225408</v>
+        <v>41.58904538225406</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144752</v>
       </c>
       <c r="R21" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S21" t="n">
         <v>4.045422554868066</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841211</v>
       </c>
       <c r="U21" t="n">
         <v>0.01432853325218915</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1825909264705196</v>
+        <v>0.1825909264705195</v>
       </c>
       <c r="H22" t="n">
         <v>1.623399328074257</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222535</v>
       </c>
       <c r="J22" t="n">
         <v>12.90917850146573</v>
@@ -32634,16 +32634,16 @@
         <v>21.21374582084763</v>
       </c>
       <c r="L22" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362615</v>
       </c>
       <c r="M22" t="n">
-        <v>28.62195768301063</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N22" t="n">
         <v>27.94139150252962</v>
       </c>
       <c r="O22" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785126</v>
       </c>
       <c r="P22" t="n">
         <v>22.08354259785265</v>
@@ -32652,16 +32652,16 @@
         <v>15.28950021563596</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119904</v>
       </c>
       <c r="S22" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T22" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831288</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.407055149006914</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767061</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I23" t="n">
         <v>15.69299363208907</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302561</v>
+        <v>34.5482969530256</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048828</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306034</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517624</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232042</v>
       </c>
       <c r="R23" t="n">
-        <v>25.56967800380559</v>
+        <v>25.56967800380558</v>
       </c>
       <c r="S23" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995062</v>
       </c>
       <c r="T23" t="n">
         <v>1.781883914777767</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055311</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>2.103428681421367</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645652</v>
       </c>
       <c r="J24" t="n">
         <v>20.57672898569376</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972319</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997492</v>
+        <v>47.2889359099749</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193111</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O24" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876696</v>
       </c>
       <c r="P24" t="n">
-        <v>41.58904538225408</v>
+        <v>41.58904538225406</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144752</v>
       </c>
       <c r="R24" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S24" t="n">
         <v>4.045422554868066</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841211</v>
       </c>
       <c r="U24" t="n">
         <v>0.01432853325218915</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1825909264705196</v>
+        <v>0.1825909264705195</v>
       </c>
       <c r="H25" t="n">
         <v>1.623399328074257</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222535</v>
       </c>
       <c r="J25" t="n">
         <v>12.90917850146573</v>
@@ -32871,16 +32871,16 @@
         <v>21.21374582084763</v>
       </c>
       <c r="L25" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362615</v>
       </c>
       <c r="M25" t="n">
-        <v>28.62195768301063</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N25" t="n">
         <v>27.94139150252962</v>
       </c>
       <c r="O25" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785126</v>
       </c>
       <c r="P25" t="n">
         <v>22.08354259785265</v>
@@ -32889,16 +32889,16 @@
         <v>15.28950021563596</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119904</v>
       </c>
       <c r="S25" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T25" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831288</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069141</v>
+        <v>0.407055149006914</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767061</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I26" t="n">
         <v>15.69299363208907</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302561</v>
+        <v>34.5482969530256</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048829</v>
+        <v>51.77894141048828</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306036</v>
+        <v>71.47532243306034</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517624</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232043</v>
+        <v>43.95737672232042</v>
       </c>
       <c r="R26" t="n">
-        <v>25.56967800380559</v>
+        <v>25.56967800380558</v>
       </c>
       <c r="S26" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995062</v>
       </c>
       <c r="T26" t="n">
         <v>1.781883914777767</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03256441192055312</v>
+        <v>0.03256441192055311</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>2.103428681421367</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645652</v>
       </c>
       <c r="J27" t="n">
         <v>20.57672898569376</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972319</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997492</v>
+        <v>47.2889359099749</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193112</v>
+        <v>55.18395773193111</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O27" t="n">
-        <v>51.81866288876697</v>
+        <v>51.81866288876696</v>
       </c>
       <c r="P27" t="n">
-        <v>41.58904538225408</v>
+        <v>41.58904538225406</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144753</v>
+        <v>27.80117545144752</v>
       </c>
       <c r="R27" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S27" t="n">
         <v>4.045422554868066</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841211</v>
       </c>
       <c r="U27" t="n">
         <v>0.01432853325218915</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1825909264705196</v>
+        <v>0.1825909264705195</v>
       </c>
       <c r="H28" t="n">
         <v>1.623399328074257</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222536</v>
+        <v>5.491007134222535</v>
       </c>
       <c r="J28" t="n">
         <v>12.90917850146573</v>
@@ -33108,16 +33108,16 @@
         <v>21.21374582084763</v>
       </c>
       <c r="L28" t="n">
-        <v>27.14629101362616</v>
+        <v>27.14629101362615</v>
       </c>
       <c r="M28" t="n">
-        <v>28.62195768301063</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N28" t="n">
         <v>27.94139150252962</v>
       </c>
       <c r="O28" t="n">
-        <v>25.80839749785127</v>
+        <v>25.80839749785126</v>
       </c>
       <c r="P28" t="n">
         <v>22.08354259785265</v>
@@ -33126,16 +33126,16 @@
         <v>15.28950021563596</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119905</v>
+        <v>8.209952021119904</v>
       </c>
       <c r="S28" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T28" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831288</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>0.4070551490069141</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767061</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I29" t="n">
         <v>15.69299363208907</v>
@@ -33187,19 +33187,19 @@
         <v>51.77894141048829</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M29" t="n">
         <v>71.47532243306036</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q29" t="n">
         <v>43.95737672232043</v>
@@ -33208,7 +33208,7 @@
         <v>25.56967800380559</v>
       </c>
       <c r="S29" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T29" t="n">
         <v>1.781883914777767</v>
@@ -33257,40 +33257,40 @@
         <v>2.103428681421367</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J30" t="n">
         <v>20.57672898569376</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972319</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M30" t="n">
         <v>55.18395773193112</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O30" t="n">
         <v>51.81866288876697</v>
       </c>
       <c r="P30" t="n">
-        <v>41.58904538225408</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q30" t="n">
         <v>27.80117545144753</v>
       </c>
       <c r="R30" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S30" t="n">
         <v>4.045422554868066</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U30" t="n">
         <v>0.01432853325218915</v>
@@ -33348,7 +33348,7 @@
         <v>27.14629101362616</v>
       </c>
       <c r="M31" t="n">
-        <v>28.62195768301063</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N31" t="n">
         <v>27.94139150252962</v>
@@ -33366,13 +33366,13 @@
         <v>8.209952021119905</v>
       </c>
       <c r="S31" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T31" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>0.4070551490069141</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767061</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I32" t="n">
         <v>15.69299363208907</v>
@@ -33424,19 +33424,19 @@
         <v>51.77894141048829</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M32" t="n">
         <v>71.47532243306036</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q32" t="n">
         <v>43.95737672232043</v>
@@ -33445,7 +33445,7 @@
         <v>25.56967800380559</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T32" t="n">
         <v>1.781883914777767</v>
@@ -33494,40 +33494,40 @@
         <v>2.103428681421367</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J33" t="n">
         <v>20.57672898569376</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972319</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M33" t="n">
         <v>55.18395773193112</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O33" t="n">
         <v>51.81866288876697</v>
       </c>
       <c r="P33" t="n">
-        <v>41.58904538225408</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q33" t="n">
         <v>27.80117545144753</v>
       </c>
       <c r="R33" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S33" t="n">
         <v>4.045422554868066</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U33" t="n">
         <v>0.01432853325218915</v>
@@ -33585,7 +33585,7 @@
         <v>27.14629101362616</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301063</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N34" t="n">
         <v>27.94139150252962</v>
@@ -33603,13 +33603,13 @@
         <v>8.209952021119905</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T34" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>0.4070551490069141</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767061</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I35" t="n">
         <v>15.69299363208907</v>
@@ -33661,19 +33661,19 @@
         <v>51.77894141048829</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M35" t="n">
         <v>71.47532243306036</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q35" t="n">
         <v>43.95737672232043</v>
@@ -33682,7 +33682,7 @@
         <v>25.56967800380559</v>
       </c>
       <c r="S35" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T35" t="n">
         <v>1.781883914777767</v>
@@ -33731,40 +33731,40 @@
         <v>2.103428681421367</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J36" t="n">
         <v>20.57672898569376</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972319</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M36" t="n">
         <v>55.18395773193112</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O36" t="n">
         <v>51.81866288876697</v>
       </c>
       <c r="P36" t="n">
-        <v>41.58904538225408</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q36" t="n">
         <v>27.80117545144753</v>
       </c>
       <c r="R36" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S36" t="n">
         <v>4.045422554868066</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U36" t="n">
         <v>0.01432853325218915</v>
@@ -33822,7 +33822,7 @@
         <v>27.14629101362616</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301063</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N37" t="n">
         <v>27.94139150252962</v>
@@ -33840,13 +33840,13 @@
         <v>8.209952021119905</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T37" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>0.4070551490069141</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767061</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I38" t="n">
         <v>15.69299363208907</v>
@@ -33898,19 +33898,19 @@
         <v>51.77894141048829</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M38" t="n">
         <v>71.47532243306036</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q38" t="n">
         <v>43.95737672232043</v>
@@ -33919,7 +33919,7 @@
         <v>25.56967800380559</v>
       </c>
       <c r="S38" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T38" t="n">
         <v>1.781883914777767</v>
@@ -33968,40 +33968,40 @@
         <v>2.103428681421367</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J39" t="n">
         <v>20.57672898569376</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972319</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M39" t="n">
         <v>55.18395773193112</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O39" t="n">
         <v>51.81866288876697</v>
       </c>
       <c r="P39" t="n">
-        <v>41.58904538225408</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q39" t="n">
         <v>27.80117545144753</v>
       </c>
       <c r="R39" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S39" t="n">
         <v>4.045422554868066</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U39" t="n">
         <v>0.01432853325218915</v>
@@ -34059,7 +34059,7 @@
         <v>27.14629101362616</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301063</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N40" t="n">
         <v>27.94139150252962</v>
@@ -34077,13 +34077,13 @@
         <v>8.209952021119905</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T40" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>0.4070551490069141</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767061</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I41" t="n">
         <v>15.69299363208907</v>
@@ -34135,19 +34135,19 @@
         <v>51.77894141048829</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M41" t="n">
         <v>71.47532243306036</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q41" t="n">
         <v>43.95737672232043</v>
@@ -34156,7 +34156,7 @@
         <v>25.56967800380559</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T41" t="n">
         <v>1.781883914777767</v>
@@ -34205,40 +34205,40 @@
         <v>2.103428681421367</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J42" t="n">
         <v>20.57672898569376</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972319</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M42" t="n">
         <v>55.18395773193112</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O42" t="n">
         <v>51.81866288876697</v>
       </c>
       <c r="P42" t="n">
-        <v>41.58904538225408</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q42" t="n">
         <v>27.80117545144753</v>
       </c>
       <c r="R42" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S42" t="n">
         <v>4.045422554868066</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U42" t="n">
         <v>0.01432853325218915</v>
@@ -34296,7 +34296,7 @@
         <v>27.14629101362616</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301063</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N43" t="n">
         <v>27.94139150252962</v>
@@ -34314,13 +34314,13 @@
         <v>8.209952021119905</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T43" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>0.4070551490069141</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767061</v>
+        <v>4.16875354476706</v>
       </c>
       <c r="I44" t="n">
         <v>15.69299363208907</v>
@@ -34372,19 +34372,19 @@
         <v>51.77894141048829</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690866</v>
+        <v>64.23635542690864</v>
       </c>
       <c r="M44" t="n">
         <v>71.47532243306036</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517627</v>
+        <v>72.63186787517625</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723876</v>
+        <v>68.58421323723874</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613055</v>
+        <v>58.53503924613054</v>
       </c>
       <c r="Q44" t="n">
         <v>43.95737672232043</v>
@@ -34393,7 +34393,7 @@
         <v>25.56967800380559</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995065</v>
+        <v>9.275769207995063</v>
       </c>
       <c r="T44" t="n">
         <v>1.781883914777767</v>
@@ -34442,40 +34442,40 @@
         <v>2.103428681421367</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645654</v>
+        <v>7.498599068645653</v>
       </c>
       <c r="J45" t="n">
         <v>20.57672898569376</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972319</v>
+        <v>35.16890724972318</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997492</v>
+        <v>47.28893590997491</v>
       </c>
       <c r="M45" t="n">
         <v>55.18395773193112</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810428</v>
+        <v>56.64451288810427</v>
       </c>
       <c r="O45" t="n">
         <v>51.81866288876697</v>
       </c>
       <c r="P45" t="n">
-        <v>41.58904538225408</v>
+        <v>41.58904538225407</v>
       </c>
       <c r="Q45" t="n">
         <v>27.80117545144753</v>
       </c>
       <c r="R45" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786597</v>
       </c>
       <c r="S45" t="n">
         <v>4.045422554868066</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841213</v>
+        <v>0.8778614705841212</v>
       </c>
       <c r="U45" t="n">
         <v>0.01432853325218915</v>
@@ -34533,7 +34533,7 @@
         <v>27.14629101362616</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301063</v>
+        <v>28.62195768301062</v>
       </c>
       <c r="N46" t="n">
         <v>27.94139150252962</v>
@@ -34551,13 +34551,13 @@
         <v>8.209952021119905</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127145</v>
+        <v>3.182061873127144</v>
       </c>
       <c r="T46" t="n">
-        <v>0.780161231283129</v>
+        <v>0.7801612312831289</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210171</v>
+        <v>0.009959505080210169</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.5765493865275</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>153.3589480640214</v>
+        <v>171.645199806282</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221609</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914311</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="N11" t="n">
-        <v>76.14873730630107</v>
+        <v>76.14873730630104</v>
       </c>
       <c r="O11" t="n">
-        <v>34.62291276103993</v>
+        <v>121.7121350875462</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443778</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766561</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515618</v>
       </c>
       <c r="L12" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M12" t="n">
         <v>183.5573176570687</v>
       </c>
       <c r="N12" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505814</v>
       </c>
       <c r="O12" t="n">
         <v>133.0740275578655</v>
       </c>
       <c r="P12" t="n">
-        <v>84.50414241545047</v>
+        <v>84.50414241545045</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,49 +35541,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.7127286595871567</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.8724683525829</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33.14699907384454</v>
       </c>
       <c r="E13" t="n">
-        <v>36.65350811233034</v>
+        <v>36.65350811233026</v>
       </c>
       <c r="F13" t="n">
-        <v>39.40276710610868</v>
+        <v>39.4027671061086</v>
       </c>
       <c r="G13" t="n">
-        <v>9.629025123080888</v>
+        <v>9.629025123080803</v>
       </c>
       <c r="H13" t="n">
-        <v>12.50659175818971</v>
+        <v>12.50659175818963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.10069804708255</v>
+        <v>58.10069804708246</v>
       </c>
       <c r="K13" t="n">
-        <v>111.3171807686847</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.52684130621125</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.8325570947116</v>
       </c>
       <c r="O13" t="n">
-        <v>140.8720697162503</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>100.7716240119478</v>
+        <v>119.8692800099464</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865274</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>171.6451998062821</v>
+        <v>171.645199806282</v>
       </c>
       <c r="L14" t="n">
+        <v>116.1231847947043</v>
+      </c>
+      <c r="M14" t="n">
+        <v>81.7376875991431</v>
+      </c>
+      <c r="N14" t="n">
         <v>188.5623770505815</v>
       </c>
-      <c r="M14" t="n">
-        <v>81.73768759914311</v>
-      </c>
-      <c r="N14" t="n">
-        <v>76.14873730630107</v>
-      </c>
       <c r="O14" t="n">
-        <v>34.62291276103993</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="P14" t="n">
-        <v>3.683164043751721</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.65419834766556</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515618</v>
       </c>
       <c r="L15" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M15" t="n">
         <v>183.5573176570687</v>
@@ -35741,7 +35741,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P15" t="n">
-        <v>84.5041424154506</v>
+        <v>84.50414241545045</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,13 +35778,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.7127286595871567</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.14699907384454</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.10069804708249</v>
+        <v>58.10069804708246</v>
       </c>
       <c r="K16" t="n">
         <v>111.3171807686846</v>
@@ -35811,13 +35811,13 @@
         <v>146.200241873998</v>
       </c>
       <c r="M16" t="n">
-        <v>31.80278685919884</v>
+        <v>153.1364108608085</v>
       </c>
       <c r="N16" t="n">
-        <v>161.8325570947116</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>6.639205359670431</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>69.73602580872347</v>
       </c>
       <c r="L17" t="n">
-        <v>47.24579619221609</v>
+        <v>47.24579619221608</v>
       </c>
       <c r="M17" t="n">
-        <v>81.73768759914311</v>
+        <v>81.7376875991431</v>
       </c>
       <c r="N17" t="n">
-        <v>76.14873730630107</v>
+        <v>76.14873730630104</v>
       </c>
       <c r="O17" t="n">
-        <v>34.62291276103993</v>
+        <v>34.62291276103991</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.7342491189868</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5641537403183</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>69.91525422199729</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515633</v>
+        <v>38.37582528515614</v>
       </c>
       <c r="L18" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M18" t="n">
         <v>183.5573176570687</v>
@@ -35978,7 +35978,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545047</v>
+        <v>84.50414241545045</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.42777687366404</v>
+        <v>23.59964894206932</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,34 +36124,34 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.24579619221609</v>
+        <v>47.24579619221608</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914311</v>
+        <v>81.7376875991431</v>
       </c>
       <c r="N20" t="n">
-        <v>76.14873730630107</v>
+        <v>76.14873730630104</v>
       </c>
       <c r="O20" t="n">
-        <v>34.62291276103993</v>
+        <v>34.62291276103991</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>155.7342491189866</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="R20" t="n">
         <v>102.5641537403183</v>
       </c>
       <c r="S20" t="n">
-        <v>69.91525422199734</v>
+        <v>69.91525422199729</v>
       </c>
       <c r="T20" t="n">
-        <v>74.960181306851</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U20" t="n">
-        <v>47.27407718077503</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515618</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5571363351701</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M21" t="n">
         <v>183.5573176570687</v>
@@ -36215,7 +36215,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P21" t="n">
-        <v>84.50414241545047</v>
+        <v>84.50414241545045</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.42777687366404</v>
+        <v>56.42777687366399</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>186.8970762229371</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.24579619221609</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914311</v>
+        <v>81.7376875991431</v>
       </c>
       <c r="N23" t="n">
-        <v>76.14873730630107</v>
+        <v>76.14873730630104</v>
       </c>
       <c r="O23" t="n">
-        <v>34.62291276103993</v>
+        <v>34.62291276103991</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>155.734249118986</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5641537403183</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.91525422199734</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>74.960181306851</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U23" t="n">
-        <v>47.27407718077503</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515647</v>
       </c>
       <c r="L24" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5573176570683</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505813</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O24" t="n">
         <v>133.0740275578655</v>
       </c>
       <c r="P24" t="n">
-        <v>84.50414241545047</v>
+        <v>84.50414241545045</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7138767300049</v>
+        <v>136.7138767300043</v>
       </c>
       <c r="K26" t="n">
         <v>206.7825271497595</v>
       </c>
       <c r="L26" t="n">
-        <v>260.7127728602488</v>
+        <v>260.7127728602489</v>
       </c>
       <c r="M26" t="n">
         <v>295.2046642671759</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743338</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O26" t="n">
         <v>248.0898894290727</v>
@@ -36613,10 +36613,10 @@
         <v>198.4233239878552</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.791525691143</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628978</v>
+        <v>18.60653861628983</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515618</v>
       </c>
       <c r="L27" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M27" t="n">
         <v>183.5573176570687</v>
@@ -36689,7 +36689,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P27" t="n">
-        <v>84.50414241545047</v>
+        <v>84.50414241545045</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.76635246655835</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.23802539056001</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>8.428137895552139</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.0093970597277</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.68573061747099</v>
+        <v>86.26261192452779</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L29" t="n">
-        <v>260.7127728602488</v>
+        <v>260.7127728602489</v>
       </c>
       <c r="M29" t="n">
         <v>295.2046642671759</v>
       </c>
       <c r="N29" t="n">
-        <v>289.6157139743338</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O29" t="n">
         <v>248.0898894290727</v>
@@ -36850,10 +36850,10 @@
         <v>198.4233239878552</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.791525691143</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628978</v>
+        <v>18.60653861628984</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L30" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M30" t="n">
         <v>183.5573176570687</v>
@@ -36926,7 +36926,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P30" t="n">
-        <v>84.50414241545047</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>146.4325157526705</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>146.432515752671</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.26261192452773</v>
+        <v>86.26261192452779</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7138767300048</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K32" t="n">
-        <v>206.78252714976</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L32" t="n">
-        <v>260.7127728602488</v>
+        <v>260.7127728602489</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671758</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N32" t="n">
-        <v>289.6157139743337</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O32" t="n">
-        <v>248.0898894290726</v>
+        <v>248.0898894290727</v>
       </c>
       <c r="P32" t="n">
         <v>198.4233239878552</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.791525691143</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628973</v>
+        <v>18.60653861628984</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L33" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M33" t="n">
         <v>183.5573176570687</v>
@@ -37163,7 +37163,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P33" t="n">
-        <v>84.50414241545047</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,13 +37203,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>5.897684867966506</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.79083545580781</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>51.35755845972371</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>181.3375692174754</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.006607353424</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.24579619221609</v>
+        <v>153.5414565058234</v>
       </c>
       <c r="M35" t="n">
         <v>81.73768759914311</v>
       </c>
       <c r="N35" t="n">
-        <v>76.14873730630107</v>
+        <v>76.14873730630106</v>
       </c>
       <c r="O35" t="n">
         <v>260.4583944746289</v>
@@ -37324,19 +37324,19 @@
         <v>257.0160241646798</v>
       </c>
       <c r="Q35" t="n">
-        <v>84.38649808003626</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>77.19923879311438</v>
       </c>
       <c r="S35" t="n">
-        <v>44.5503392747934</v>
+        <v>44.55033927479339</v>
       </c>
       <c r="T35" t="n">
         <v>49.59526635964706</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90916223357109</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L36" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M36" t="n">
         <v>183.5573176570687</v>
@@ -37400,7 +37400,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P36" t="n">
-        <v>84.50414241545047</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.0628619264601</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>195.3065769068295</v>
@@ -37546,28 +37546,28 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.24579619221609</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914311</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="N38" t="n">
-        <v>260.4583944746289</v>
+        <v>76.14873730630106</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276103993</v>
+        <v>45.68389658107706</v>
       </c>
       <c r="P38" t="n">
-        <v>5.237544015180144</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3842258679676</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>77.19923879311438</v>
       </c>
       <c r="S38" t="n">
-        <v>44.5503392747934</v>
+        <v>44.55033927479339</v>
       </c>
       <c r="T38" t="n">
         <v>49.59526635964706</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L39" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M39" t="n">
         <v>183.5573176570687</v>
@@ -37637,7 +37637,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P39" t="n">
-        <v>84.50414241545047</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,13 +37719,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>35.55545571552457</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>164.2437149803694</v>
       </c>
       <c r="K41" t="n">
-        <v>234.312365400124</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>101.7857478031829</v>
+        <v>47.24579619221608</v>
       </c>
       <c r="M41" t="n">
-        <v>81.73768759914311</v>
+        <v>322.7345025175404</v>
       </c>
       <c r="N41" t="n">
-        <v>76.14873730630107</v>
+        <v>124.0042393989948</v>
       </c>
       <c r="O41" t="n">
-        <v>275.6197276794372</v>
+        <v>275.6197276794371</v>
       </c>
       <c r="P41" t="n">
         <v>225.9531622382197</v>
@@ -37804,7 +37804,7 @@
         <v>46.13637686665427</v>
       </c>
       <c r="S41" t="n">
-        <v>13.4874773483333</v>
+        <v>13.48747734833329</v>
       </c>
       <c r="T41" t="n">
         <v>18.53240443318696</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L42" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M42" t="n">
         <v>183.5573176570687</v>
@@ -37874,7 +37874,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P42" t="n">
-        <v>84.50414241545047</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.56464706057669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.57363093734037</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38023,25 +38023,25 @@
         <v>288.2426111106133</v>
       </c>
       <c r="M44" t="n">
-        <v>81.73768759914311</v>
+        <v>272.55535047144</v>
       </c>
       <c r="N44" t="n">
-        <v>76.14873730630107</v>
+        <v>317.1455522246983</v>
       </c>
       <c r="O44" t="n">
-        <v>89.1628643720063</v>
+        <v>34.62291276103991</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382197</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.3213639415075</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>46.13637686665427</v>
       </c>
       <c r="S44" t="n">
-        <v>13.4874773483333</v>
+        <v>13.48747734833329</v>
       </c>
       <c r="T44" t="n">
         <v>18.53240443318696</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515619</v>
       </c>
       <c r="L45" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351699</v>
       </c>
       <c r="M45" t="n">
         <v>183.5573176570687</v>
@@ -38111,7 +38111,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P45" t="n">
-        <v>84.50414241545047</v>
+        <v>84.50414241545046</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
